--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44356</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44384</v>
+        <v>44356</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44376</v>
+        <v>44370</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,12 +1027,84 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>400</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>25</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44372</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L2" t="n">
         <v>13000</v>
       </c>
-      <c r="L2" t="n">
-        <v>14000</v>
-      </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44386</v>
+        <v>44356</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -576,13 +576,13 @@
         <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44356</v>
+        <v>44386</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -864,13 +864,13 @@
         <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44384</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K8" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>16500</v>
+        <v>11750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>660</v>
+        <v>470</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L10" t="n">
         <v>12000</v>
       </c>
-      <c r="L10" t="n">
-        <v>13000</v>
-      </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,12 +1099,84 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>400</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>25</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K2" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44356</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L3" t="n">
         <v>13000</v>
       </c>
-      <c r="L3" t="n">
-        <v>14000</v>
-      </c>
       <c r="M3" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
         <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44386</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44372</v>
+        <v>44386</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -792,13 +792,13 @@
         <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,29 +1077,29 @@
         </is>
       </c>
       <c r="J10" t="n">
+        <v>400</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
         <v>500</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>11500</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>400</v>
       </c>
       <c r="K11" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L11" t="n">
         <v>12000</v>
       </c>
-      <c r="L11" t="n">
-        <v>13000</v>
-      </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44386</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44372</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44356</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,12 +1171,84 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>400</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11750</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>470</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44384</v>
+        <v>44473</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44370</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44386</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44372</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,12 +1243,84 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>400</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11750</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>470</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>25</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44473</v>
+        <v>44376</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,29 +501,29 @@
         </is>
       </c>
       <c r="J2" t="n">
+        <v>400</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>500</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8500</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>8750</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>350</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44384</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
         <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44370</v>
+        <v>44356</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
         <v>13000</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44386</v>
+        <v>44372</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44372</v>
+        <v>44386</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1080,13 +1080,13 @@
         <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>400</v>
       </c>
       <c r="K12" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L12" t="n">
         <v>12000</v>
       </c>
-      <c r="L12" t="n">
-        <v>13000</v>
-      </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44484</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>660</v>
+        <v>380</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44473</v>
+        <v>44356</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -864,13 +864,13 @@
         <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>8750</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44372</v>
+        <v>44473</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44377</v>
+        <v>44372</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44386</v>
+        <v>44377</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
         <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K12" t="n">
         <v>11500</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,12 +1315,84 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>400</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>25</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L2" t="n">
         <v>12000</v>
       </c>
-      <c r="L2" t="n">
-        <v>13000</v>
-      </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44386</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>520</v>
       </c>
       <c r="K4" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L4" t="n">
         <v>13000</v>
       </c>
-      <c r="L4" t="n">
-        <v>14000</v>
-      </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44484</v>
+        <v>44376</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44356</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44473</v>
+        <v>44372</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>8750</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44372</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K10" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44386</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L11" t="n">
         <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44384</v>
+        <v>44370</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K12" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44466</v>
+        <v>44484</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
         <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44316</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44386</v>
+        <v>44466</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44376</v>
+        <v>44484</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44372</v>
+        <v>44386</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44384</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
         <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44372</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44370</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L12" t="n">
         <v>13000</v>
       </c>
-      <c r="L12" t="n">
-        <v>14000</v>
-      </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44384</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44484</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44316</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44484</v>
+        <v>44356</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
         <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44473</v>
+        <v>44484</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L8" t="n">
         <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44370</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
         <v>13000</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44386</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44372</v>
+        <v>44473</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L12" t="n">
         <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44384</v>
+        <v>44316</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>11750</v>
+        <v>16500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44372</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44466</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44466</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44372</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44484</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -792,13 +792,13 @@
         <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44484</v>
+        <v>44384</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44384</v>
+        <v>44376</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44386</v>
+        <v>44370</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44473</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44386</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44316</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44372</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44466</v>
+        <v>44386</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
         <v>13000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44356</v>
+        <v>44484</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44484</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -792,13 +792,13 @@
         <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44384</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
         <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>400</v>
       </c>
       <c r="K8" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L8" t="n">
         <v>12000</v>
       </c>
-      <c r="L8" t="n">
-        <v>13000</v>
-      </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
         <v>13000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44316</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>11750</v>
+        <v>16500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44386</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44384</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K14" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44386</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44473</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44484</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L6" t="n">
         <v>12000</v>
       </c>
-      <c r="L6" t="n">
-        <v>13000</v>
-      </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44370</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44425</v>
+        <v>44356</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44372</v>
+        <v>44484</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>660</v>
+        <v>500</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44386</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44372</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44384</v>
+        <v>44316</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>16500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44473</v>
+        <v>44484</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44386</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1080,13 +1080,13 @@
         <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L10" t="n">
         <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44386</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44372</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44316</v>
+        <v>44370</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
         <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44372</v>
+        <v>44484</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L4" t="n">
         <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44376</v>
+        <v>44386</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L5" t="n">
         <v>12000</v>
       </c>
-      <c r="L5" t="n">
-        <v>13000</v>
-      </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>510</v>
+        <v>660</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44384</v>
+        <v>44370</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44356</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44386</v>
+        <v>44425</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L9" t="n">
         <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K12" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>8750</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
+        <v>400</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
         <v>500</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>11500</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
         <v>13000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,29 +501,29 @@
         </is>
       </c>
       <c r="J2" t="n">
+        <v>400</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>500</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>11500</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44484</v>
+        <v>44384</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44466</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44386</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L5" t="n">
         <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44356</v>
+        <v>44484</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44425</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44473</v>
+        <v>44370</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>8750</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44386</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L13" t="n">
         <v>12000</v>
       </c>
-      <c r="L13" t="n">
-        <v>13000</v>
-      </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44372</v>
+        <v>44466</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44316</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44356</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44386</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44484</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>660</v>
+        <v>380</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L8" t="n">
         <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44377</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L9" t="n">
         <v>13000</v>
       </c>
-      <c r="L9" t="n">
-        <v>14000</v>
-      </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44370</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" t="n">
         <v>13000</v>
       </c>
-      <c r="L10" t="n">
-        <v>14000</v>
-      </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
         <v>13000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44386</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L13" t="n">
         <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44384</v>
+        <v>44690</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>11750</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44316</v>
+        <v>44384</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K4" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>16500</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>660</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44386</v>
+        <v>44356</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -792,13 +792,13 @@
         <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44484</v>
+        <v>44386</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44484</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
         <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44377</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L10" t="n">
         <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44370</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L11" t="n">
         <v>13000</v>
       </c>
-      <c r="L11" t="n">
-        <v>14000</v>
-      </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44446</v>
+        <v>44370</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
         <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,12 +1387,84 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44473</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>500</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L15" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>25</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K2" t="n">
         <v>13000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44690</v>
+        <v>44466</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -576,13 +576,13 @@
         <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>9750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>700</v>
+        <v>390</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44384</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44386</v>
+        <v>44484</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44425</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44386</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
         <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44690</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>44316</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>8750</v>
+        <v>16500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>350</v>
+        <v>660</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,6 +1470,78 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>480</v>
+      </c>
+      <c r="K16" t="n">
+        <v>17500</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>17750</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>710</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>25</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44690</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>12750</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>510</v>
+        <v>700</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44386</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44372</v>
+        <v>44356</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -864,13 +864,13 @@
         <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L7" t="n">
         <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44425</v>
+        <v>44484</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44386</v>
+        <v>44446</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44370</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44384</v>
+        <v>44694</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="K12" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>470</v>
+        <v>710</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44690</v>
+        <v>44316</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L13" t="n">
         <v>17000</v>
       </c>
-      <c r="L13" t="n">
-        <v>18000</v>
-      </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44372</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>8750</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44694</v>
+        <v>44376</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>17750</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>710</v>
+        <v>500</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44372</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44473</v>
+        <v>44690</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>8750</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44690</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44386</v>
+        <v>44376</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,29 +717,29 @@
         </is>
       </c>
       <c r="J5" t="n">
+        <v>400</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
         <v>500</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>11500</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44356</v>
+        <v>44484</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44386</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44384</v>
+        <v>44694</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="K11" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>470</v>
+        <v>710</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44694</v>
+        <v>44466</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>17750</v>
+        <v>9750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>710</v>
+        <v>390</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44316</v>
+        <v>44356</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44372</v>
+        <v>44316</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44377</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
         <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44714</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,16 +1527,88 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
       </c>
       <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>520</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>510</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>25</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44446</v>
+        <v>44721</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1008,13 +1008,13 @@
         <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>14750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>460</v>
+        <v>590</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44384</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
         <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44694</v>
+        <v>44384</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="K11" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>17750</v>
+        <v>11750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>710</v>
+        <v>470</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44466</v>
+        <v>44694</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K12" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>9750</v>
+        <v>17750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44356</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44316</v>
+        <v>44356</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44316</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>11750</v>
+        <v>16500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44714</v>
+        <v>44425</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>44714</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,16 +1599,88 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>520</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>510</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>25</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44690</v>
+        <v>44370</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L5" t="n">
         <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44484</v>
+        <v>44694</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>17750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>380</v>
+        <v>710</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44473</v>
+        <v>44484</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L8" t="n">
         <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44721</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1008,13 +1008,13 @@
         <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44386</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44384</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44694</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>17750</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>710</v>
+        <v>500</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44356</v>
+        <v>44721</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44316</v>
+        <v>44714</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44425</v>
+        <v>44690</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>11750</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44714</v>
+        <v>44316</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44377</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44372</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44694</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K4" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>470</v>
+        <v>710</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44694</v>
+        <v>44721</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>17750</v>
+        <v>14750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>710</v>
+        <v>590</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44484</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>380</v>
+        <v>660</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44384</v>
+        <v>44376</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44386</v>
+        <v>44377</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44466</v>
+        <v>44484</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
         <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44714</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44356</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44721</v>
+        <v>44372</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44714</v>
+        <v>44384</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44690</v>
+        <v>44473</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>8750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44690</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>8750</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
         <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44316</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44694</v>
+        <v>44370</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>17750</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>710</v>
+        <v>540</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44356</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
         <v>13000</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44721</v>
+        <v>44694</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K6" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>590</v>
+        <v>710</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44690</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L8" t="n">
         <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44721</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>590</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44377</v>
+        <v>44484</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44484</v>
+        <v>44386</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44714</v>
+        <v>44372</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L12" t="n">
         <v>14000</v>
       </c>
-      <c r="L12" t="n">
-        <v>15000</v>
-      </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44372</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44384</v>
+        <v>44466</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44386</v>
+        <v>44714</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44690</v>
+        <v>44376</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44756</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44316</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44356</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
         <v>13000</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44694</v>
+        <v>44356</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>17750</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>710</v>
+        <v>540</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44690</v>
+        <v>44694</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="L7" t="n">
         <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>17750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>44690</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>12750</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>510</v>
+        <v>700</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44721</v>
+        <v>44377</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44484</v>
+        <v>44721</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>9500</v>
+        <v>14750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>380</v>
+        <v>590</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44386</v>
+        <v>44484</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44372</v>
+        <v>44386</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K14" t="n">
         <v>11500</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1440,13 +1440,13 @@
         <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>44466</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44714</v>
+        <v>44473</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44376</v>
+        <v>44714</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,16 +1671,88 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>400</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>25</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44756</v>
+        <v>44694</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>17750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>580</v>
+        <v>710</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44690</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44473</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44694</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>17500</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>17750</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>710</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44690</v>
+        <v>44756</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44377</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44721</v>
+        <v>44386</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1080,13 +1080,13 @@
         <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>14750</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44484</v>
+        <v>44714</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44386</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,29 +1221,29 @@
         </is>
       </c>
       <c r="J12" t="n">
+        <v>400</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
         <v>500</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>11500</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>460</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44372</v>
+        <v>44721</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44384</v>
+        <v>44370</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K15" t="n">
         <v>11500</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44466</v>
+        <v>44356</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44473</v>
+        <v>44484</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44714</v>
+        <v>44425</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L19" t="n">
         <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44781</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44721</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
+        <v>400</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
         <v>500</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14500</v>
-      </c>
-      <c r="L13" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>14750</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>590</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44370</v>
+        <v>44721</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44384</v>
+        <v>44370</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M15" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44484</v>
+        <v>44356</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44425</v>
+        <v>44484</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44377</v>
+        <v>44425</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,12 +1747,84 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
       </c>
       <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>520</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>510</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>25</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44694</v>
+        <v>44690</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
         <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>17750</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44690</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44316</v>
+        <v>44694</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K4" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>16500</v>
+        <v>17750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>660</v>
+        <v>710</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44473</v>
+        <v>44370</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>8750</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44756</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44756</v>
+        <v>44714</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44386</v>
+        <v>44721</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1080,13 +1080,13 @@
         <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>14750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>590</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44714</v>
+        <v>44377</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44781</v>
+        <v>44425</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44721</v>
+        <v>44384</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K14" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>590</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44370</v>
+        <v>44386</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44384</v>
+        <v>44316</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>11750</v>
+        <v>16500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44356</v>
+        <v>44376</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
+        <v>400</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
         <v>500</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M17" t="n">
-        <v>13500</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>540</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44484</v>
+        <v>44781</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44425</v>
+        <v>44356</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M19" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44377</v>
+        <v>44484</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44714</v>
+        <v>44797</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44473</v>
+        <v>44714</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44721</v>
+        <v>44473</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1080,13 +1080,13 @@
         <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>14750</v>
+        <v>8750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44377</v>
+        <v>44721</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44425</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K12" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44384</v>
+        <v>44466</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L15" t="n">
         <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44376</v>
+        <v>44316</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44781</v>
+        <v>44376</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L19" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44484</v>
+        <v>44356</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,16 +1815,88 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
       </c>
       <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>400</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>25</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44781</v>
+        <v>44376</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,58 +1845,130 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>500</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>25</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>44484</v>
       </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
         <v>400</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K22" t="n">
         <v>9000</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>10000</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M22" t="n">
         <v>9500</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>380</v>
       </c>
-      <c r="Q21" t="n">
-        <v>25</v>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="Q22" t="n">
+        <v>25</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44714</v>
+        <v>44799</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44473</v>
+        <v>44714</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44721</v>
+        <v>44473</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>14750</v>
+        <v>8750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44721</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44377</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K13" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44384</v>
+        <v>44466</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L16" t="n">
         <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44798</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L18" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44781</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1800,13 +1800,13 @@
         <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,58 +1917,130 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>500</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>25</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>44484</v>
       </c>
-      <c r="E22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
         <v>400</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>9000</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>10000</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M23" t="n">
         <v>9500</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>380</v>
       </c>
-      <c r="Q22" t="n">
-        <v>25</v>
-      </c>
-      <c r="R22" t="inlineStr">
+      <c r="Q23" t="n">
+        <v>25</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44473</v>
+        <v>44714</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44721</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>14750</v>
+        <v>8750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44377</v>
+        <v>44721</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44377</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1440,13 +1440,13 @@
         <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44384</v>
+        <v>44466</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K17" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L17" t="n">
         <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44798</v>
+        <v>44316</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L19" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1800,13 +1800,13 @@
         <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44781</v>
+        <v>44376</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1872,13 +1872,13 @@
         <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,58 +1989,130 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>500</v>
+      </c>
+      <c r="K23" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>25</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>44484</v>
       </c>
-      <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
         <v>400</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K24" t="n">
         <v>9000</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>10000</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M24" t="n">
         <v>9500</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P23" t="n">
+      <c r="P24" t="n">
         <v>380</v>
       </c>
-      <c r="Q23" t="n">
-        <v>25</v>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q24" t="n">
+        <v>25</v>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44386</v>
+        <v>44809</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K18" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44798</v>
+        <v>44316</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L20" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M20" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1872,13 +1872,13 @@
         <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M21" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44781</v>
+        <v>44376</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1944,13 +1944,13 @@
         <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,58 +2061,130 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>500</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>25</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>44484</v>
       </c>
-      <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
         <v>400</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K25" t="n">
         <v>9000</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>10000</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M25" t="n">
         <v>9500</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>380</v>
       </c>
-      <c r="Q24" t="n">
-        <v>25</v>
-      </c>
-      <c r="R24" t="inlineStr">
+      <c r="Q25" t="n">
+        <v>25</v>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44370</v>
+        <v>44811</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>10250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>540</v>
+        <v>410</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
         <v>13000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44756</v>
+        <v>44372</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L7" t="n">
         <v>14000</v>
       </c>
-      <c r="L7" t="n">
-        <v>15000</v>
-      </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44797</v>
+        <v>44756</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44799</v>
+        <v>44797</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44714</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44721</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>14750</v>
+        <v>8750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44377</v>
+        <v>44721</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44377</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44384</v>
+        <v>44466</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44809</v>
+        <v>44384</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K18" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44386</v>
+        <v>44809</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K19" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44798</v>
+        <v>44316</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L21" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M21" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1944,13 +1944,13 @@
         <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44781</v>
+        <v>44376</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2016,13 +2016,13 @@
         <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,58 +2133,130 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>500</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>25</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>44484</v>
       </c>
-      <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
         <v>400</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>9000</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>10000</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>9500</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>380</v>
       </c>
-      <c r="Q25" t="n">
-        <v>25</v>
-      </c>
-      <c r="R25" t="inlineStr">
+      <c r="Q26" t="n">
+        <v>25</v>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44817</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44694</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>17500</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>17750</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>710</v>
+        <v>460</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44811</v>
+        <v>44694</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="L5" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>10250</v>
+        <v>17750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>410</v>
+        <v>710</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44370</v>
+        <v>44811</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>10250</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>540</v>
+        <v>410</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
         <v>13000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44756</v>
+        <v>44372</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L8" t="n">
         <v>14000</v>
       </c>
-      <c r="L8" t="n">
-        <v>15000</v>
-      </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44797</v>
+        <v>44756</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44799</v>
+        <v>44797</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44714</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44721</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>14750</v>
+        <v>8750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44377</v>
+        <v>44721</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44425</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K16" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1584,13 +1584,13 @@
         <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44384</v>
+        <v>44466</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44809</v>
+        <v>44384</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K19" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44386</v>
+        <v>44809</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44798</v>
+        <v>44316</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L22" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M22" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2016,13 +2016,13 @@
         <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44781</v>
+        <v>44376</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2088,13 +2088,13 @@
         <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44356</v>
+        <v>44816</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44484</v>
+        <v>44781</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2232,31 +2232,175 @@
         <v>400</v>
       </c>
       <c r="K26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>25</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>500</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>400</v>
+      </c>
+      <c r="K28" t="n">
         <v>9000</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L28" t="n">
         <v>10000</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M28" t="n">
         <v>9500</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P26" t="n">
+      <c r="P28" t="n">
         <v>380</v>
       </c>
-      <c r="Q26" t="n">
-        <v>25</v>
-      </c>
-      <c r="R26" t="inlineStr">
+      <c r="Q28" t="n">
+        <v>25</v>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44425</v>
+        <v>44824</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44384</v>
+        <v>44466</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44809</v>
+        <v>44384</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K20" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44386</v>
+        <v>44809</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44798</v>
+        <v>44316</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K23" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L23" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M23" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2088,13 +2088,13 @@
         <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M24" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44816</v>
+        <v>44376</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44781</v>
+        <v>44816</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L26" t="n">
         <v>10000</v>
       </c>
-      <c r="L26" t="n">
-        <v>11000</v>
-      </c>
       <c r="M26" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,58 +2349,130 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>500</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>25</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>44484</v>
       </c>
-      <c r="E28" t="n">
-        <v>4</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
         <v>400</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K29" t="n">
         <v>9000</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>10000</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M29" t="n">
         <v>9500</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P28" t="n">
+      <c r="P29" t="n">
         <v>380</v>
       </c>
-      <c r="Q28" t="n">
-        <v>25</v>
-      </c>
-      <c r="R28" t="inlineStr">
+      <c r="Q29" t="n">
+        <v>25</v>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44809</v>
+        <v>44825</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K21" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44386</v>
+        <v>44809</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44798</v>
+        <v>44316</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2160,13 +2160,13 @@
         <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M25" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44816</v>
+        <v>44376</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44781</v>
+        <v>44816</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K27" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L27" t="n">
         <v>10000</v>
       </c>
-      <c r="L27" t="n">
-        <v>11000</v>
-      </c>
       <c r="M27" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,58 +2421,130 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>500</v>
+      </c>
+      <c r="K29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>25</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>44484</v>
       </c>
-      <c r="E29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>400</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K30" t="n">
         <v>9000</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>10000</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M30" t="n">
         <v>9500</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P29" t="n">
+      <c r="P30" t="n">
         <v>380</v>
       </c>
-      <c r="Q29" t="n">
-        <v>25</v>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="Q30" t="n">
+        <v>25</v>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44721</v>
+        <v>44827</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K15" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>14750</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44721</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44824</v>
+        <v>44377</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44425</v>
+        <v>44824</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44384</v>
+        <v>44466</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44825</v>
+        <v>44384</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44809</v>
+        <v>44825</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K22" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44386</v>
+        <v>44809</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44798</v>
+        <v>44316</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K25" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L25" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M25" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2232,13 +2232,13 @@
         <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M26" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44816</v>
+        <v>44376</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44781</v>
+        <v>44816</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K28" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L28" t="n">
         <v>10000</v>
       </c>
-      <c r="L28" t="n">
-        <v>11000</v>
-      </c>
       <c r="M28" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44356</v>
+        <v>44781</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L29" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M29" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,58 +2493,130 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>500</v>
+      </c>
+      <c r="K30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>25</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>44484</v>
       </c>
-      <c r="E30" t="n">
-        <v>4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
         <v>400</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K31" t="n">
         <v>9000</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>10000</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M31" t="n">
         <v>9500</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P30" t="n">
+      <c r="P31" t="n">
         <v>380</v>
       </c>
-      <c r="Q30" t="n">
-        <v>25</v>
-      </c>
-      <c r="R30" t="inlineStr">
+      <c r="Q31" t="n">
+        <v>25</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44690</v>
+        <v>44797</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44817</v>
+        <v>44809</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L3" t="n">
         <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44799</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>500</v>
       </c>
       <c r="K4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L4" t="n">
         <v>11000</v>
       </c>
-      <c r="L4" t="n">
-        <v>12000</v>
-      </c>
       <c r="M4" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44694</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>17750</v>
+        <v>11750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>710</v>
+        <v>470</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44811</v>
+        <v>44827</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>10250</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
         <v>13000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44372</v>
+        <v>44356</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44756</v>
+        <v>44798</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1008,13 +1008,13 @@
         <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>10750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44797</v>
+        <v>44816</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44799</v>
+        <v>44316</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>420</v>
+        <v>660</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44803</v>
+        <v>44384</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K12" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44714</v>
+        <v>44386</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44690</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>8750</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44827</v>
+        <v>44803</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44721</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K16" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>44825</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K17" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>12750</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44824</v>
+        <v>44721</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="L18" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>14750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44425</v>
+        <v>44817</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K19" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44384</v>
+        <v>44756</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44825</v>
+        <v>44370</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44809</v>
+        <v>44714</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44386</v>
+        <v>44811</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>10250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44316</v>
+        <v>44824</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44798</v>
+        <v>44466</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2232,13 +2232,13 @@
         <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L26" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44376</v>
+        <v>44694</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>12500</v>
+        <v>17750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44816</v>
+        <v>44484</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L28" t="n">
         <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44781</v>
+        <v>44446</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L29" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44356</v>
+        <v>44376</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,29 +2517,29 @@
         </is>
       </c>
       <c r="J30" t="n">
+        <v>400</v>
+      </c>
+      <c r="K30" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
         <v>500</v>
-      </c>
-      <c r="K30" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M30" t="n">
-        <v>13500</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>540</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44484</v>
+        <v>44781</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2592,13 +2592,13 @@
         <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M31" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44811</v>
+        <v>44837</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K24" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>10250</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44824</v>
+        <v>44811</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>10250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44466</v>
+        <v>44824</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44694</v>
+        <v>44466</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>17750</v>
+        <v>9750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>710</v>
+        <v>390</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44484</v>
+        <v>44694</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K28" t="n">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="L28" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>9500</v>
+        <v>17750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>380</v>
+        <v>710</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44446</v>
+        <v>44484</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L30" t="n">
         <v>12000</v>
       </c>
-      <c r="L30" t="n">
-        <v>13000</v>
-      </c>
       <c r="M30" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44781</v>
+        <v>44376</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2592,31 +2592,103 @@
         <v>400</v>
       </c>
       <c r="K31" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>25</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>400</v>
+      </c>
+      <c r="K32" t="n">
         <v>10000</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>11000</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M32" t="n">
         <v>10500</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P31" t="n">
+      <c r="P32" t="n">
         <v>420</v>
       </c>
-      <c r="Q31" t="n">
-        <v>25</v>
-      </c>
-      <c r="R31" t="inlineStr">
+      <c r="Q32" t="n">
+        <v>25</v>
+      </c>
+      <c r="R32" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44837</v>
+        <v>44846</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K24" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L24" t="n">
         <v>8000</v>
       </c>
-      <c r="L24" t="n">
-        <v>9000</v>
-      </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44811</v>
+        <v>44837</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K25" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>10250</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44824</v>
+        <v>44811</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>10250</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44466</v>
+        <v>44824</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44694</v>
+        <v>44466</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>17750</v>
+        <v>9750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>710</v>
+        <v>390</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44484</v>
+        <v>44694</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K29" t="n">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>9500</v>
+        <v>17750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>380</v>
+        <v>710</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44446</v>
+        <v>44484</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L31" t="n">
         <v>12000</v>
       </c>
-      <c r="L31" t="n">
-        <v>13000</v>
-      </c>
       <c r="M31" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44781</v>
+        <v>44376</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2664,31 +2664,103 @@
         <v>400</v>
       </c>
       <c r="K32" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>25</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>400</v>
+      </c>
+      <c r="K33" t="n">
         <v>10000</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>11000</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M33" t="n">
         <v>10500</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>420</v>
       </c>
-      <c r="Q32" t="n">
-        <v>25</v>
-      </c>
-      <c r="R32" t="inlineStr">
+      <c r="Q33" t="n">
+        <v>25</v>
+      </c>
+      <c r="R33" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44827</v>
+        <v>44847</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L6" t="n">
         <v>8000</v>
       </c>
-      <c r="L6" t="n">
-        <v>9000</v>
-      </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44372</v>
+        <v>44827</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44798</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>10750</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44816</v>
+        <v>44798</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44316</v>
+        <v>44816</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>16500</v>
+        <v>9750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44384</v>
+        <v>44316</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>11750</v>
+        <v>16500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L13" t="n">
         <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44690</v>
+        <v>44386</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44803</v>
+        <v>44848</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44690</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>510</v>
+        <v>700</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44825</v>
+        <v>44803</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44721</v>
+        <v>44377</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K18" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44817</v>
+        <v>44825</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>440</v>
       </c>
       <c r="K19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L19" t="n">
         <v>9000</v>
       </c>
-      <c r="L19" t="n">
-        <v>10000</v>
-      </c>
       <c r="M19" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44473</v>
+        <v>44721</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1800,13 +1800,13 @@
         <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>8750</v>
+        <v>14750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>350</v>
+        <v>590</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44756</v>
+        <v>44817</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44370</v>
+        <v>44473</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44714</v>
+        <v>44756</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44846</v>
+        <v>44370</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K24" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44837</v>
+        <v>44714</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44811</v>
+        <v>44846</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L26" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>10250</v>
+        <v>7750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44824</v>
+        <v>44837</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K27" t="n">
         <v>8000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44466</v>
+        <v>44811</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2376,13 +2376,13 @@
         <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L28" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M28" t="n">
-        <v>9750</v>
+        <v>10250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44694</v>
+        <v>44824</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>17750</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2520,13 +2520,13 @@
         <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L30" t="n">
         <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44446</v>
+        <v>44694</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K31" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="L31" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>11500</v>
+        <v>17750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>460</v>
+        <v>710</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44376</v>
+        <v>44484</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2664,13 +2664,13 @@
         <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L32" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,58 +2709,202 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
+        <v>44446</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>500</v>
+      </c>
+      <c r="K33" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>25</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>400</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>25</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>44781</v>
       </c>
-      <c r="E33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
         <v>400</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K35" t="n">
         <v>10000</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>11000</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M35" t="n">
         <v>10500</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>420</v>
       </c>
-      <c r="Q33" t="n">
-        <v>25</v>
-      </c>
-      <c r="R33" t="inlineStr">
+      <c r="Q35" t="n">
+        <v>25</v>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L2" t="n">
         <v>11000</v>
       </c>
-      <c r="L2" t="n">
-        <v>12000</v>
-      </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>10750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44809</v>
+        <v>44847</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -576,13 +576,13 @@
         <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44799</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44846</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44847</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44827</v>
+        <v>44781</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44372</v>
+        <v>44809</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44797</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44798</v>
+        <v>44811</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1080,13 +1080,13 @@
         <v>400</v>
       </c>
       <c r="K10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L10" t="n">
         <v>10500</v>
       </c>
-      <c r="L10" t="n">
-        <v>11000</v>
-      </c>
       <c r="M10" t="n">
-        <v>10750</v>
+        <v>10250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44816</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44316</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>16500</v>
+        <v>8750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>660</v>
+        <v>350</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44384</v>
+        <v>44825</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="K13" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44386</v>
+        <v>44837</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44848</v>
+        <v>44827</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44690</v>
+        <v>44721</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>700</v>
+        <v>590</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44803</v>
+        <v>44756</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44377</v>
+        <v>44356</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M18" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44825</v>
+        <v>44694</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>17750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>710</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44721</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
+        <v>400</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
         <v>500</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14500</v>
-      </c>
-      <c r="L20" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>14750</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>590</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44473</v>
+        <v>44690</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>8750</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44756</v>
+        <v>44386</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44370</v>
+        <v>44848</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44714</v>
+        <v>44824</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44846</v>
+        <v>44370</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K26" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44837</v>
+        <v>44377</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2304,13 +2304,13 @@
         <v>520</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44811</v>
+        <v>44316</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L28" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="M28" t="n">
-        <v>10250</v>
+        <v>16500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>410</v>
+        <v>660</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44824</v>
+        <v>44816</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44466</v>
+        <v>44384</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K30" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44694</v>
+        <v>44803</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>17750</v>
+        <v>9750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>710</v>
+        <v>390</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44484</v>
+        <v>44714</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2664,13 +2664,13 @@
         <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44446</v>
+        <v>44484</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44376</v>
+        <v>44799</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M34" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44781</v>
+        <v>44372</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44816</v>
+        <v>44855</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K29" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44803</v>
+        <v>44384</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K31" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44484</v>
+        <v>44714</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2736,13 +2736,13 @@
         <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44799</v>
+        <v>44484</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L34" t="n">
         <v>10000</v>
       </c>
-      <c r="L34" t="n">
-        <v>11000</v>
-      </c>
       <c r="M34" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44372</v>
+        <v>44799</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,31 +2880,103 @@
         <v>500</v>
       </c>
       <c r="K35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>25</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>500</v>
+      </c>
+      <c r="K36" t="n">
         <v>13000</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>14000</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M36" t="n">
         <v>13500</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
         <v>540</v>
       </c>
-      <c r="Q35" t="n">
-        <v>25</v>
-      </c>
-      <c r="R35" t="inlineStr">
+      <c r="Q36" t="n">
+        <v>25</v>
+      </c>
+      <c r="R36" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44484</v>
+        <v>44858</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44799</v>
+        <v>44484</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L35" t="n">
         <v>10000</v>
       </c>
-      <c r="L35" t="n">
-        <v>11000</v>
-      </c>
       <c r="M35" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44372</v>
+        <v>44799</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2952,31 +2952,103 @@
         <v>500</v>
       </c>
       <c r="K36" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>25</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>500</v>
+      </c>
+      <c r="K37" t="n">
         <v>13000</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>14000</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M37" t="n">
         <v>13500</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>540</v>
       </c>
-      <c r="Q36" t="n">
-        <v>25</v>
-      </c>
-      <c r="R36" t="inlineStr">
+      <c r="Q37" t="n">
+        <v>25</v>
+      </c>
+      <c r="R37" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44848</v>
+        <v>44873</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K24" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L24" t="n">
         <v>7000</v>
       </c>
-      <c r="L24" t="n">
-        <v>8000</v>
-      </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44824</v>
+        <v>44848</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K25" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L25" t="n">
         <v>8000</v>
       </c>
-      <c r="L25" t="n">
-        <v>9000</v>
-      </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44370</v>
+        <v>44824</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2304,13 +2304,13 @@
         <v>520</v>
       </c>
       <c r="K27" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M27" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K28" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L28" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44855</v>
+        <v>44316</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44816</v>
+        <v>44855</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K30" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L31" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44803</v>
+        <v>44384</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K32" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M32" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44858</v>
+        <v>44714</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44484</v>
+        <v>44858</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44799</v>
+        <v>44484</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L36" t="n">
         <v>10000</v>
       </c>
-      <c r="L36" t="n">
-        <v>11000</v>
-      </c>
       <c r="M36" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44372</v>
+        <v>44799</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3024,31 +3024,103 @@
         <v>500</v>
       </c>
       <c r="K37" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>25</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>500</v>
+      </c>
+      <c r="K38" t="n">
         <v>13000</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>14000</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M38" t="n">
         <v>13500</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
         <v>540</v>
       </c>
-      <c r="Q37" t="n">
-        <v>25</v>
-      </c>
-      <c r="R37" t="inlineStr">
+      <c r="Q38" t="n">
+        <v>25</v>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44756</v>
+        <v>44874</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44356</v>
+        <v>44756</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44694</v>
+        <v>44356</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M19" t="n">
-        <v>17750</v>
+        <v>13500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>710</v>
+        <v>540</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44694</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>17750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44817</v>
+        <v>44376</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44690</v>
+        <v>44817</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44386</v>
+        <v>44690</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44873</v>
+        <v>44386</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44848</v>
+        <v>44873</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K25" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L25" t="n">
         <v>7000</v>
       </c>
-      <c r="L25" t="n">
-        <v>8000</v>
-      </c>
       <c r="M25" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44824</v>
+        <v>44848</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K26" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L26" t="n">
         <v>8000</v>
       </c>
-      <c r="L26" t="n">
-        <v>9000</v>
-      </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44370</v>
+        <v>44824</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44377</v>
+        <v>44370</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2376,13 +2376,13 @@
         <v>520</v>
       </c>
       <c r="K28" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M29" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44855</v>
+        <v>44316</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44816</v>
+        <v>44855</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K31" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L32" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44803</v>
+        <v>44384</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K33" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44858</v>
+        <v>44714</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44484</v>
+        <v>44858</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44799</v>
+        <v>44484</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L37" t="n">
         <v>10000</v>
       </c>
-      <c r="L37" t="n">
-        <v>11000</v>
-      </c>
       <c r="M37" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44372</v>
+        <v>44799</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,31 +3096,103 @@
         <v>500</v>
       </c>
       <c r="K38" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>25</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>500</v>
+      </c>
+      <c r="K39" t="n">
         <v>13000</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L39" t="n">
         <v>14000</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M39" t="n">
         <v>13500</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
         <v>540</v>
       </c>
-      <c r="Q38" t="n">
-        <v>25</v>
-      </c>
-      <c r="R38" t="inlineStr">
+      <c r="Q39" t="n">
+        <v>25</v>
+      </c>
+      <c r="R39" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44377</v>
+        <v>44876</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K29" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K30" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L30" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44855</v>
+        <v>44316</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K31" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M31" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44816</v>
+        <v>44855</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K32" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44803</v>
+        <v>44384</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K34" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44858</v>
+        <v>44714</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44484</v>
+        <v>44858</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44799</v>
+        <v>44484</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K38" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L38" t="n">
         <v>10000</v>
       </c>
-      <c r="L38" t="n">
-        <v>11000</v>
-      </c>
       <c r="M38" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44372</v>
+        <v>44799</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,31 +3168,103 @@
         <v>500</v>
       </c>
       <c r="K39" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>25</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>8</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>500</v>
+      </c>
+      <c r="K40" t="n">
         <v>13000</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L40" t="n">
         <v>14000</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M40" t="n">
         <v>13500</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
         <v>540</v>
       </c>
-      <c r="Q39" t="n">
-        <v>25</v>
-      </c>
-      <c r="R39" t="inlineStr">
+      <c r="Q40" t="n">
+        <v>25</v>
+      </c>
+      <c r="R40" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44874</v>
+        <v>44880</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44756</v>
+        <v>44874</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44356</v>
+        <v>44756</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44694</v>
+        <v>44356</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>17750</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>710</v>
+        <v>540</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44376</v>
+        <v>44694</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>12500</v>
+        <v>17750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44817</v>
+        <v>44376</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44690</v>
+        <v>44817</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44386</v>
+        <v>44690</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44873</v>
+        <v>44386</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44848</v>
+        <v>44873</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K26" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L26" t="n">
         <v>7000</v>
       </c>
-      <c r="L26" t="n">
-        <v>8000</v>
-      </c>
       <c r="M26" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44824</v>
+        <v>44848</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K27" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L27" t="n">
         <v>8000</v>
       </c>
-      <c r="L27" t="n">
-        <v>9000</v>
-      </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44370</v>
+        <v>44824</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44876</v>
+        <v>44370</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44377</v>
+        <v>44876</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K30" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K31" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L31" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44855</v>
+        <v>44316</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44816</v>
+        <v>44855</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K33" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L34" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44803</v>
+        <v>44384</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K35" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M35" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44858</v>
+        <v>44714</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44484</v>
+        <v>44858</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44799</v>
+        <v>44484</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K39" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L39" t="n">
         <v>10000</v>
       </c>
-      <c r="L39" t="n">
-        <v>11000</v>
-      </c>
       <c r="M39" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44372</v>
+        <v>44799</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3240,31 +3240,103 @@
         <v>500</v>
       </c>
       <c r="K40" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>25</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>500</v>
+      </c>
+      <c r="K41" t="n">
         <v>13000</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>14000</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M41" t="n">
         <v>13500</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
         <v>540</v>
       </c>
-      <c r="Q40" t="n">
-        <v>25</v>
-      </c>
-      <c r="R40" t="inlineStr">
+      <c r="Q41" t="n">
+        <v>25</v>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44881</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44781</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -864,13 +864,13 @@
         <v>400</v>
       </c>
       <c r="K7" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L7" t="n">
         <v>10000</v>
       </c>
-      <c r="L7" t="n">
-        <v>11000</v>
-      </c>
       <c r="M7" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44809</v>
+        <v>44781</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44797</v>
+        <v>44809</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44811</v>
+        <v>44797</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>10250</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44811</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>10250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44825</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L13" t="n">
         <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44837</v>
+        <v>44825</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K14" t="n">
         <v>8000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44827</v>
+        <v>44837</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
         <v>8000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44721</v>
+        <v>44827</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K16" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>14750</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44880</v>
+        <v>44721</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44874</v>
+        <v>44880</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44756</v>
+        <v>44874</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44356</v>
+        <v>44756</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44694</v>
+        <v>44356</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>17750</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>710</v>
+        <v>540</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44376</v>
+        <v>44694</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>17750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44817</v>
+        <v>44376</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44690</v>
+        <v>44817</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44386</v>
+        <v>44690</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44873</v>
+        <v>44386</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44848</v>
+        <v>44873</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K27" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L27" t="n">
         <v>7000</v>
       </c>
-      <c r="L27" t="n">
-        <v>8000</v>
-      </c>
       <c r="M27" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44824</v>
+        <v>44848</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K28" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L28" t="n">
         <v>8000</v>
       </c>
-      <c r="L28" t="n">
-        <v>9000</v>
-      </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44370</v>
+        <v>44824</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44876</v>
+        <v>44370</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44377</v>
+        <v>44876</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K31" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K32" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L32" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M32" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44855</v>
+        <v>44316</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K33" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M33" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44816</v>
+        <v>44855</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K34" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44803</v>
+        <v>44384</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K36" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M36" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44858</v>
+        <v>44714</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44484</v>
+        <v>44858</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K39" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44799</v>
+        <v>44484</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L40" t="n">
         <v>10000</v>
       </c>
-      <c r="L40" t="n">
-        <v>11000</v>
-      </c>
       <c r="M40" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44372</v>
+        <v>44799</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3312,31 +3312,103 @@
         <v>500</v>
       </c>
       <c r="K41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>25</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>8</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>500</v>
+      </c>
+      <c r="K42" t="n">
         <v>13000</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>14000</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M42" t="n">
         <v>13500</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
         <v>540</v>
       </c>
-      <c r="Q41" t="n">
-        <v>25</v>
-      </c>
-      <c r="R41" t="inlineStr">
+      <c r="Q42" t="n">
+        <v>25</v>
+      </c>
+      <c r="R42" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44825</v>
+        <v>44883</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="K14" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L14" t="n">
         <v>8000</v>
       </c>
-      <c r="L14" t="n">
-        <v>9000</v>
-      </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44837</v>
+        <v>44825</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K15" t="n">
         <v>8000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44827</v>
+        <v>44837</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K16" t="n">
         <v>8000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44721</v>
+        <v>44827</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K17" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>14750</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44880</v>
+        <v>44721</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44874</v>
+        <v>44880</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44756</v>
+        <v>44874</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44356</v>
+        <v>44756</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44694</v>
+        <v>44356</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>17750</v>
+        <v>13500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>710</v>
+        <v>540</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44376</v>
+        <v>44694</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>17750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44817</v>
+        <v>44376</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44690</v>
+        <v>44817</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44386</v>
+        <v>44690</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44873</v>
+        <v>44386</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44848</v>
+        <v>44873</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K28" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L28" t="n">
         <v>7000</v>
       </c>
-      <c r="L28" t="n">
-        <v>8000</v>
-      </c>
       <c r="M28" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44824</v>
+        <v>44848</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L29" t="n">
         <v>8000</v>
       </c>
-      <c r="L29" t="n">
-        <v>9000</v>
-      </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44370</v>
+        <v>44824</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44876</v>
+        <v>44370</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44377</v>
+        <v>44876</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K32" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L32" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K33" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L33" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M33" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44855</v>
+        <v>44316</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44816</v>
+        <v>44855</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K35" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K36" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44803</v>
+        <v>44384</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K37" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M37" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44714</v>
+        <v>44803</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44858</v>
+        <v>44714</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44484</v>
+        <v>44858</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44799</v>
+        <v>44484</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L41" t="n">
         <v>10000</v>
       </c>
-      <c r="L41" t="n">
-        <v>11000</v>
-      </c>
       <c r="M41" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44372</v>
+        <v>44799</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3384,31 +3384,103 @@
         <v>500</v>
       </c>
       <c r="K42" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>25</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>500</v>
+      </c>
+      <c r="K43" t="n">
         <v>13000</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>14000</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M43" t="n">
         <v>13500</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
         <v>540</v>
       </c>
-      <c r="Q42" t="n">
-        <v>25</v>
-      </c>
-      <c r="R42" t="inlineStr">
+      <c r="Q43" t="n">
+        <v>25</v>
+      </c>
+      <c r="R43" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44798</v>
+        <v>44694</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K2" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>10750</v>
+        <v>17750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>430</v>
+        <v>710</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44847</v>
+        <v>44858</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
         <v>7000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44883</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K4" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>11750</v>
+        <v>7500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="K6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L6" t="n">
         <v>7000</v>
       </c>
-      <c r="L6" t="n">
-        <v>8000</v>
-      </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44803</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
         <v>9500</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44781</v>
+        <v>44824</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44809</v>
+        <v>44848</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44797</v>
+        <v>44721</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>14750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>590</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44811</v>
+        <v>44816</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L11" t="n">
         <v>10000</v>
       </c>
-      <c r="L11" t="n">
-        <v>10500</v>
-      </c>
       <c r="M11" t="n">
-        <v>10250</v>
+        <v>9750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44446</v>
+        <v>44799</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L12" t="n">
         <v>11000</v>
       </c>
-      <c r="L12" t="n">
-        <v>12000</v>
-      </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44798</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44883</v>
+        <v>44756</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44825</v>
+        <v>44827</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K15" t="n">
         <v>8000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44837</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>520</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44827</v>
+        <v>44855</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L17" t="n">
         <v>8000</v>
       </c>
-      <c r="L17" t="n">
-        <v>9000</v>
-      </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44721</v>
+        <v>44825</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K18" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M18" t="n">
-        <v>14750</v>
+        <v>8500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44874</v>
+        <v>44817</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44756</v>
+        <v>44781</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1872,13 +1872,13 @@
         <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44356</v>
+        <v>44873</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44694</v>
+        <v>44376</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>17750</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>710</v>
+        <v>500</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44376</v>
+        <v>44316</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44817</v>
+        <v>44386</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44690</v>
+        <v>44473</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>8750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44386</v>
+        <v>44690</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44873</v>
+        <v>44356</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,29 +2373,29 @@
         </is>
       </c>
       <c r="J28" t="n">
+        <v>500</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
         <v>540</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L28" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M28" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44848</v>
+        <v>44384</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K29" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44824</v>
+        <v>44809</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44370</v>
+        <v>44797</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44876</v>
+        <v>44874</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
         <v>6000</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44377</v>
+        <v>44881</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44316</v>
+        <v>44847</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,29 +2805,29 @@
         </is>
       </c>
       <c r="J34" t="n">
+        <v>520</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
         <v>300</v>
-      </c>
-      <c r="K34" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L34" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M34" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>660</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44855</v>
+        <v>44372</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,29 +2877,29 @@
         </is>
       </c>
       <c r="J35" t="n">
+        <v>500</v>
+      </c>
+      <c r="K35" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>540</v>
-      </c>
-      <c r="K35" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L35" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M35" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44816</v>
+        <v>44811</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M36" t="n">
-        <v>9750</v>
+        <v>10250</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44384</v>
+        <v>44425</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
         <v>11500</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44803</v>
+        <v>44446</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M38" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44714</v>
+        <v>44370</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K39" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L39" t="n">
         <v>14000</v>
       </c>
-      <c r="L39" t="n">
-        <v>15000</v>
-      </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44858</v>
+        <v>44466</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L40" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M40" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44799</v>
+        <v>44837</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K42" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44372</v>
+        <v>44714</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44694</v>
+        <v>44484</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>17750</v>
+        <v>9500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>710</v>
+        <v>380</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44858</v>
+        <v>44370</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44883</v>
+        <v>44473</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44846</v>
+        <v>44880</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K5" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
         <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44876</v>
+        <v>44858</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44824</v>
+        <v>44797</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44848</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44721</v>
+        <v>44846</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>14750</v>
+        <v>7750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>590</v>
+        <v>310</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44816</v>
+        <v>44809</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
         <v>9500</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44799</v>
+        <v>44811</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="M12" t="n">
-        <v>10500</v>
+        <v>10250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44756</v>
+        <v>44874</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44827</v>
+        <v>44825</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K15" t="n">
         <v>8000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44824</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44855</v>
+        <v>44876</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="K17" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L17" t="n">
         <v>7000</v>
       </c>
-      <c r="L17" t="n">
-        <v>8000</v>
-      </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44825</v>
+        <v>44855</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="K18" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L18" t="n">
         <v>8000</v>
       </c>
-      <c r="L18" t="n">
-        <v>9000</v>
-      </c>
       <c r="M18" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44880</v>
+        <v>44817</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44817</v>
+        <v>44827</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K20" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L20" t="n">
         <v>9000</v>
       </c>
-      <c r="L20" t="n">
-        <v>10000</v>
-      </c>
       <c r="M20" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44781</v>
+        <v>44386</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44376</v>
+        <v>44837</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44316</v>
+        <v>44816</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>16500</v>
+        <v>9750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44386</v>
+        <v>44883</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K25" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44473</v>
+        <v>44356</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2232,13 +2232,13 @@
         <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>8750</v>
+        <v>13500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44690</v>
+        <v>44372</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44356</v>
+        <v>44694</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>17750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>540</v>
+        <v>710</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44384</v>
+        <v>44446</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L29" t="n">
         <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44809</v>
+        <v>44714</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44797</v>
+        <v>44781</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K31" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L31" t="n">
         <v>11000</v>
       </c>
-      <c r="L31" t="n">
-        <v>12000</v>
-      </c>
       <c r="M31" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44874</v>
+        <v>44847</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K32" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44881</v>
+        <v>44377</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K33" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M33" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44847</v>
+        <v>44425</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44372</v>
+        <v>44803</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44811</v>
+        <v>44690</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2952,13 +2952,13 @@
         <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>10250</v>
+        <v>17500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>410</v>
+        <v>700</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44425</v>
+        <v>44721</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="L37" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>11750</v>
+        <v>14750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>470</v>
+        <v>590</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44446</v>
+        <v>44881</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K39" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L39" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M39" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44466</v>
+        <v>44384</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K40" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44484</v>
+        <v>44756</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3312,13 +3312,13 @@
         <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44837</v>
+        <v>44848</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K42" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L42" t="n">
         <v>8000</v>
       </c>
-      <c r="L42" t="n">
-        <v>9000</v>
-      </c>
       <c r="M42" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44714</v>
+        <v>44376</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3456,13 +3456,13 @@
         <v>400</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M43" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44484</v>
+        <v>44848</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44370</v>
+        <v>44873</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44473</v>
+        <v>44816</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44880</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44858</v>
+        <v>44846</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L6" t="n">
         <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44799</v>
+        <v>44825</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44797</v>
+        <v>44473</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44798</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1008,13 +1008,13 @@
         <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44846</v>
+        <v>44372</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44809</v>
+        <v>44781</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44811</v>
+        <v>44874</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>10250</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44798</v>
+        <v>44858</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44874</v>
+        <v>44817</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44825</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44824</v>
+        <v>44356</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44817</v>
+        <v>44827</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L19" t="n">
         <v>9000</v>
       </c>
-      <c r="L19" t="n">
-        <v>10000</v>
-      </c>
       <c r="M19" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44827</v>
+        <v>44694</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>17750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>340</v>
+        <v>710</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44386</v>
+        <v>44316</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44873</v>
+        <v>44484</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44837</v>
+        <v>44811</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>10250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44816</v>
+        <v>44881</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44883</v>
+        <v>44370</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44356</v>
+        <v>44803</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44372</v>
+        <v>44384</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44694</v>
+        <v>44837</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K28" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>17750</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44446</v>
+        <v>44880</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K29" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44714</v>
+        <v>44721</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L30" t="n">
         <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44781</v>
+        <v>44466</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2592,13 +2592,13 @@
         <v>400</v>
       </c>
       <c r="K31" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L31" t="n">
         <v>10000</v>
       </c>
-      <c r="L31" t="n">
-        <v>11000</v>
-      </c>
       <c r="M31" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44847</v>
+        <v>44799</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44377</v>
+        <v>44797</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="K33" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44425</v>
+        <v>44386</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L34" t="n">
         <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44803</v>
+        <v>44425</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M35" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44690</v>
+        <v>44714</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2952,13 +2952,13 @@
         <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44721</v>
+        <v>44376</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,29 +3021,29 @@
         </is>
       </c>
       <c r="J37" t="n">
+        <v>400</v>
+      </c>
+      <c r="K37" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>500</v>
-      </c>
-      <c r="K37" t="n">
-        <v>14500</v>
-      </c>
-      <c r="L37" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" t="n">
-        <v>14750</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>590</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44881</v>
+        <v>44847</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K38" t="n">
         <v>7000</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44316</v>
+        <v>44756</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44384</v>
+        <v>44824</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44756</v>
+        <v>44883</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44848</v>
+        <v>44690</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L42" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M42" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44376</v>
+        <v>44809</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K43" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L43" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M43" t="n">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44848</v>
+        <v>44824</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44873</v>
+        <v>44848</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44816</v>
+        <v>44837</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44386</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44846</v>
+        <v>44855</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K6" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
         <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44825</v>
+        <v>44881</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L7" t="n">
         <v>8000</v>
       </c>
-      <c r="L7" t="n">
-        <v>9000</v>
-      </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44473</v>
+        <v>44825</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K8" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
         <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44798</v>
+        <v>44384</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K9" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44372</v>
+        <v>44466</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44781</v>
+        <v>44714</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44874</v>
+        <v>44880</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44858</v>
+        <v>44799</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44817</v>
+        <v>44377</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>9500</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44446</v>
+        <v>44803</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44356</v>
+        <v>44846</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>7750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>540</v>
+        <v>310</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44876</v>
+        <v>44484</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44855</v>
+        <v>44372</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
+        <v>500</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
         <v>540</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M18" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>300</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44827</v>
+        <v>44876</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44694</v>
+        <v>44811</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="M20" t="n">
-        <v>17750</v>
+        <v>10250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>710</v>
+        <v>410</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44316</v>
+        <v>44874</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44484</v>
+        <v>44756</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1944,13 +1944,13 @@
         <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44811</v>
+        <v>44473</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L23" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>10250</v>
+        <v>8750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44881</v>
+        <v>44446</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2088,13 +2088,13 @@
         <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44370</v>
+        <v>44797</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44803</v>
+        <v>44809</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K26" t="n">
         <v>9500</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K27" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44837</v>
+        <v>44798</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44880</v>
+        <v>44316</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44721</v>
+        <v>44883</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K30" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>14750</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44466</v>
+        <v>44817</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K31" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L31" t="n">
         <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44799</v>
+        <v>44858</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2664,13 +2664,13 @@
         <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44797</v>
+        <v>44873</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="K33" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44386</v>
+        <v>44721</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2808,13 +2808,13 @@
         <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L34" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>11500</v>
+        <v>14750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>460</v>
+        <v>590</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44425</v>
+        <v>44781</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M35" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44714</v>
+        <v>44694</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>17750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>580</v>
+        <v>710</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44756</v>
+        <v>44425</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44824</v>
+        <v>44827</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K40" t="n">
         <v>8000</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44883</v>
+        <v>44690</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L41" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M41" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44690</v>
+        <v>44370</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K42" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M42" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44809</v>
+        <v>44356</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L43" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M43" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44824</v>
+        <v>44848</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L2" t="n">
         <v>8000</v>
       </c>
-      <c r="L2" t="n">
-        <v>9000</v>
-      </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44848</v>
+        <v>44873</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L3" t="n">
         <v>7000</v>
       </c>
-      <c r="L3" t="n">
-        <v>8000</v>
-      </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44837</v>
+        <v>44816</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44386</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44855</v>
+        <v>44846</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L6" t="n">
         <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44881</v>
+        <v>44825</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44825</v>
+        <v>44473</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L8" t="n">
         <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44384</v>
+        <v>44798</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44372</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44714</v>
+        <v>44781</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44880</v>
+        <v>44874</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L12" t="n">
         <v>7000</v>
       </c>
-      <c r="L12" t="n">
-        <v>8000</v>
-      </c>
       <c r="M12" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44799</v>
+        <v>44858</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44377</v>
+        <v>44817</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K14" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44803</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44846</v>
+        <v>44356</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44484</v>
+        <v>44876</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44372</v>
+        <v>44855</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44876</v>
+        <v>44827</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44811</v>
+        <v>44694</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K20" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="L20" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>10250</v>
+        <v>17750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>410</v>
+        <v>710</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44874</v>
+        <v>44316</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44756</v>
+        <v>44484</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1944,13 +1944,13 @@
         <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44473</v>
+        <v>44811</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M23" t="n">
-        <v>8750</v>
+        <v>10250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44446</v>
+        <v>44881</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2088,13 +2088,13 @@
         <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44797</v>
+        <v>44370</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="K25" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44809</v>
+        <v>44803</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
         <v>9500</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44816</v>
+        <v>44384</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K27" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44798</v>
+        <v>44837</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K28" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44316</v>
+        <v>44880</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,29 +2445,29 @@
         </is>
       </c>
       <c r="J29" t="n">
+        <v>560</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
         <v>300</v>
-      </c>
-      <c r="K29" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L29" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M29" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>660</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44883</v>
+        <v>44721</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44817</v>
+        <v>44466</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L31" t="n">
         <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44858</v>
+        <v>44799</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2664,13 +2664,13 @@
         <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44873</v>
+        <v>44797</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44721</v>
+        <v>44386</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2808,13 +2808,13 @@
         <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>14750</v>
+        <v>11500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44781</v>
+        <v>44425</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L35" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M35" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44694</v>
+        <v>44714</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>17750</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>710</v>
+        <v>580</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44425</v>
+        <v>44756</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44827</v>
+        <v>44824</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K40" t="n">
         <v>8000</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44690</v>
+        <v>44883</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K41" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L41" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44370</v>
+        <v>44690</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M42" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44356</v>
+        <v>44809</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L43" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M43" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44824</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44848</v>
+        <v>44837</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44837</v>
+        <v>44824</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
         <v>8000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44386</v>
+        <v>44880</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44855</v>
+        <v>44781</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44881</v>
+        <v>44811</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>10250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44825</v>
+        <v>44372</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44384</v>
+        <v>44797</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
         <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44714</v>
+        <v>44847</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L12" t="n">
         <v>7000</v>
       </c>
-      <c r="L12" t="n">
-        <v>8000</v>
-      </c>
       <c r="M12" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44799</v>
+        <v>44370</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44377</v>
+        <v>44816</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44803</v>
+        <v>44316</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>16500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>660</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44846</v>
+        <v>44473</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44484</v>
+        <v>44827</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K17" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L17" t="n">
         <v>9000</v>
       </c>
-      <c r="L17" t="n">
-        <v>10000</v>
-      </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44372</v>
+        <v>44874</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44876</v>
+        <v>44721</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>14750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>260</v>
+        <v>590</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44811</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1800,13 +1800,13 @@
         <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>10250</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44874</v>
+        <v>44756</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44756</v>
+        <v>44714</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44473</v>
+        <v>44858</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2016,13 +2016,13 @@
         <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44446</v>
+        <v>44883</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44797</v>
+        <v>44377</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="K25" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44809</v>
+        <v>44386</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M26" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44816</v>
+        <v>44356</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M27" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44798</v>
+        <v>44809</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K28" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L28" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44316</v>
+        <v>44817</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>660</v>
+        <v>380</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44883</v>
+        <v>44803</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44817</v>
+        <v>44799</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M31" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44858</v>
+        <v>44825</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44873</v>
+        <v>44466</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44721</v>
+        <v>44848</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K34" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>14750</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44781</v>
+        <v>44484</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>400</v>
       </c>
       <c r="K35" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L35" t="n">
         <v>10000</v>
       </c>
-      <c r="L35" t="n">
-        <v>11000</v>
-      </c>
       <c r="M35" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44694</v>
+        <v>44384</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="K36" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M36" t="n">
-        <v>17750</v>
+        <v>11750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>710</v>
+        <v>470</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44376</v>
+        <v>44846</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K37" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L37" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44847</v>
+        <v>44881</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
         <v>7000</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44425</v>
+        <v>44798</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L39" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M39" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44827</v>
+        <v>44694</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>17750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>710</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44690</v>
+        <v>44446</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L41" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M41" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44370</v>
+        <v>44690</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M42" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44356</v>
+        <v>44855</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L43" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44837</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K2" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44837</v>
+        <v>44846</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L3" t="n">
         <v>8000</v>
       </c>
-      <c r="L3" t="n">
-        <v>9000</v>
-      </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44824</v>
+        <v>44883</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L4" t="n">
         <v>8000</v>
       </c>
-      <c r="L4" t="n">
-        <v>9000</v>
-      </c>
       <c r="M4" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44880</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44781</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>420</v>
+        <v>660</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44811</v>
+        <v>44376</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -864,13 +864,13 @@
         <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>10250</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44372</v>
+        <v>44873</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44797</v>
+        <v>44799</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L9" t="n">
         <v>11000</v>
       </c>
-      <c r="L9" t="n">
-        <v>12000</v>
-      </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44876</v>
+        <v>44386</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,29 +1077,29 @@
         </is>
       </c>
       <c r="J10" t="n">
+        <v>500</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
         <v>460</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>260</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44847</v>
+        <v>44690</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44873</v>
+        <v>44827</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44370</v>
+        <v>44876</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44816</v>
+        <v>44377</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44316</v>
+        <v>44874</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44827</v>
+        <v>44880</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="K17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L17" t="n">
         <v>8000</v>
       </c>
-      <c r="L17" t="n">
-        <v>9000</v>
-      </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44874</v>
+        <v>44756</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44721</v>
+        <v>44798</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M19" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44694</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>17750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44756</v>
+        <v>44372</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L21" t="n">
         <v>14000</v>
       </c>
-      <c r="L21" t="n">
-        <v>15000</v>
-      </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44714</v>
+        <v>44817</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44858</v>
+        <v>44356</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2016,13 +2016,13 @@
         <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44883</v>
+        <v>44811</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>10250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44377</v>
+        <v>44816</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K25" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44386</v>
+        <v>44809</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K26" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L26" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44356</v>
+        <v>44370</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K27" t="n">
         <v>13000</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44809</v>
+        <v>44484</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L28" t="n">
         <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44817</v>
+        <v>44781</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M29" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44803</v>
+        <v>44721</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>390</v>
+        <v>590</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44799</v>
+        <v>44824</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2592,13 +2592,13 @@
         <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M31" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44825</v>
+        <v>44847</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K32" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L32" t="n">
         <v>8000</v>
       </c>
-      <c r="L32" t="n">
-        <v>9000</v>
-      </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44466</v>
+        <v>44881</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44848</v>
+        <v>44825</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L35" t="n">
         <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44384</v>
+        <v>44858</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K36" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>11750</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44846</v>
+        <v>44446</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M37" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44881</v>
+        <v>44797</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44798</v>
+        <v>44803</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K39" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L39" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44694</v>
+        <v>44855</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="K40" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>17750</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>710</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44446</v>
+        <v>44714</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L41" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44690</v>
+        <v>44384</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K42" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M42" t="n">
-        <v>17500</v>
+        <v>11750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>700</v>
+        <v>470</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44855</v>
+        <v>44848</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K43" t="n">
         <v>7000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44837</v>
+        <v>44372</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44846</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K3" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44883</v>
+        <v>44484</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,29 +645,29 @@
         </is>
       </c>
       <c r="J4" t="n">
+        <v>400</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
         <v>380</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>300</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>11750</v>
+        <v>16500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44690</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44376</v>
+        <v>44809</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44873</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44799</v>
+        <v>44817</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K9" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L9" t="n">
         <v>10000</v>
       </c>
-      <c r="L9" t="n">
-        <v>11000</v>
-      </c>
       <c r="M9" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44386</v>
+        <v>44848</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44690</v>
+        <v>44781</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44827</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L12" t="n">
         <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44876</v>
+        <v>44837</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44377</v>
+        <v>44855</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="K14" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44874</v>
+        <v>44384</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>6500</v>
+        <v>11750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>260</v>
+        <v>470</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K16" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>8750</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44880</v>
+        <v>44858</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
         <v>7000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44756</v>
+        <v>44714</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44798</v>
+        <v>44824</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44372</v>
+        <v>44425</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44817</v>
+        <v>44386</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44356</v>
+        <v>44803</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44811</v>
+        <v>44816</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K24" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L24" t="n">
         <v>10000</v>
       </c>
-      <c r="L24" t="n">
-        <v>10500</v>
-      </c>
       <c r="M24" t="n">
-        <v>10250</v>
+        <v>9750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44816</v>
+        <v>44873</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K25" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44809</v>
+        <v>44797</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M26" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44370</v>
+        <v>44825</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2376,13 +2376,13 @@
         <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L28" t="n">
         <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44781</v>
+        <v>44883</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K29" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L29" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44721</v>
+        <v>44811</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M30" t="n">
-        <v>14750</v>
+        <v>10250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>590</v>
+        <v>410</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44824</v>
+        <v>44376</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,29 +2589,29 @@
         </is>
       </c>
       <c r="J31" t="n">
+        <v>400</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
         <v>500</v>
-      </c>
-      <c r="K31" t="n">
-        <v>8000</v>
-      </c>
-      <c r="L31" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M31" t="n">
-        <v>8500</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>340</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44847</v>
+        <v>44798</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>10750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44881</v>
+        <v>44721</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2736,13 +2736,13 @@
         <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44825</v>
+        <v>44356</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44466</v>
+        <v>44880</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K35" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44858</v>
+        <v>44756</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44446</v>
+        <v>44847</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K37" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44797</v>
+        <v>44881</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44803</v>
+        <v>44874</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K39" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44855</v>
+        <v>44846</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K40" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L40" t="n">
         <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44714</v>
+        <v>44876</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44384</v>
+        <v>44370</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K42" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L42" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M42" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44848</v>
+        <v>44799</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L43" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M43" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44372</v>
+        <v>44858</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -504,13 +504,13 @@
         <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44484</v>
+        <v>44846</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44809</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>16500</v>
+        <v>9750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44690</v>
+        <v>44837</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44809</v>
+        <v>44824</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44799</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>500</v>
       </c>
       <c r="K8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L8" t="n">
         <v>11000</v>
       </c>
-      <c r="L8" t="n">
-        <v>12000</v>
-      </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44817</v>
+        <v>44690</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44848</v>
+        <v>44372</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44781</v>
+        <v>44370</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44694</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K12" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>8750</v>
+        <v>17750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>350</v>
+        <v>710</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44837</v>
+        <v>44881</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L13" t="n">
         <v>8000</v>
       </c>
-      <c r="L13" t="n">
-        <v>9000</v>
-      </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44855</v>
+        <v>44817</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44466</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44858</v>
+        <v>44883</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K17" t="n">
         <v>7000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44714</v>
+        <v>44781</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44824</v>
+        <v>44484</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44694</v>
+        <v>44848</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K20" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>17750</v>
+        <v>7500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>710</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44425</v>
+        <v>44316</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M21" t="n">
-        <v>11750</v>
+        <v>16500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44386</v>
+        <v>44446</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44873</v>
+        <v>44811</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>10250</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>410</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44797</v>
+        <v>44880</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="K26" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44825</v>
+        <v>44847</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K27" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L27" t="n">
         <v>8000</v>
       </c>
-      <c r="L27" t="n">
-        <v>9000</v>
-      </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44466</v>
+        <v>44714</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2376,13 +2376,13 @@
         <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44883</v>
+        <v>44756</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44811</v>
+        <v>44825</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K30" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L30" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>10250</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44798</v>
+        <v>44855</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K32" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44721</v>
+        <v>44798</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M33" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44880</v>
+        <v>44721</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44756</v>
+        <v>44425</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2952,13 +2952,13 @@
         <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44847</v>
+        <v>44827</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44881</v>
+        <v>44873</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K38" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L38" t="n">
         <v>7000</v>
       </c>
-      <c r="L38" t="n">
-        <v>8000</v>
-      </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44874</v>
+        <v>44797</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K39" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44846</v>
+        <v>44876</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K40" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L40" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44876</v>
+        <v>44386</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,29 +3309,29 @@
         </is>
       </c>
       <c r="J41" t="n">
+        <v>500</v>
+      </c>
+      <c r="K41" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
         <v>460</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L41" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M41" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>260</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44370</v>
+        <v>44473</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44799</v>
+        <v>44874</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3456,13 +3456,13 @@
         <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L43" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M43" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44858</v>
+        <v>44484</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44798</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44846</v>
+        <v>44721</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>310</v>
+        <v>590</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44809</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44837</v>
+        <v>44690</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44824</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L8" t="n">
         <v>10000</v>
       </c>
-      <c r="L8" t="n">
-        <v>11000</v>
-      </c>
       <c r="M8" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44690</v>
+        <v>44797</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44372</v>
+        <v>44384</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44370</v>
+        <v>44756</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44694</v>
+        <v>44827</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K12" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>17750</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44881</v>
+        <v>44848</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K13" t="n">
         <v>7000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44817</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44466</v>
+        <v>44799</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M16" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44883</v>
+        <v>44825</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44781</v>
+        <v>44372</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M18" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44484</v>
+        <v>44881</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44848</v>
+        <v>44876</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>800</v>
+        <v>460</v>
       </c>
       <c r="K20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L20" t="n">
         <v>7000</v>
       </c>
-      <c r="L20" t="n">
-        <v>8000</v>
-      </c>
       <c r="M20" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44316</v>
+        <v>44811</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L21" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="M21" t="n">
-        <v>16500</v>
+        <v>10250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>660</v>
+        <v>410</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44446</v>
+        <v>44846</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44803</v>
+        <v>44466</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
         <v>9500</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44816</v>
+        <v>44880</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K24" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44811</v>
+        <v>44874</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>10250</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44880</v>
+        <v>44858</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
         <v>7000</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44847</v>
+        <v>44376</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44714</v>
+        <v>44356</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L28" t="n">
         <v>14000</v>
       </c>
-      <c r="L28" t="n">
-        <v>15000</v>
-      </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44756</v>
+        <v>44781</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2448,13 +2448,13 @@
         <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44825</v>
+        <v>44370</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44376</v>
+        <v>44817</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K31" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44855</v>
+        <v>44809</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44798</v>
+        <v>44873</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K33" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>10750</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44356</v>
+        <v>44837</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44721</v>
+        <v>44694</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K35" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>590</v>
+        <v>710</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44425</v>
+        <v>44473</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K36" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44827</v>
+        <v>44883</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="K37" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L37" t="n">
         <v>8000</v>
       </c>
-      <c r="L37" t="n">
-        <v>9000</v>
-      </c>
       <c r="M37" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44873</v>
+        <v>44714</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44797</v>
+        <v>44386</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K39" t="n">
         <v>11000</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44876</v>
+        <v>44847</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K40" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44386</v>
+        <v>44824</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3312,13 +3312,13 @@
         <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L41" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M41" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44473</v>
+        <v>44316</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K42" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M42" t="n">
-        <v>8750</v>
+        <v>16500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>350</v>
+        <v>660</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K43" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44484</v>
+        <v>44781</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -504,13 +504,13 @@
         <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44798</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K3" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44721</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>590</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44824</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44690</v>
+        <v>44384</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>11750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>700</v>
+        <v>470</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44827</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K7" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>12750</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44803</v>
+        <v>44798</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44797</v>
+        <v>44803</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44384</v>
+        <v>44797</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="K10" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
         <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44756</v>
+        <v>44386</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44827</v>
+        <v>44356</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44848</v>
+        <v>44809</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44484</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44816</v>
+        <v>44848</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44799</v>
+        <v>44714</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44825</v>
+        <v>44377</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K18" t="n">
         <v>13000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44881</v>
+        <v>44372</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M19" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44876</v>
+        <v>44817</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44811</v>
+        <v>44837</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K21" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>10250</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44846</v>
+        <v>44694</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K22" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>7750</v>
+        <v>17750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>310</v>
+        <v>710</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44880</v>
+        <v>44473</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44874</v>
+        <v>44756</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44858</v>
+        <v>44876</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="K26" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L26" t="n">
         <v>7000</v>
       </c>
-      <c r="L26" t="n">
-        <v>8000</v>
-      </c>
       <c r="M26" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44376</v>
+        <v>44316</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M27" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44356</v>
+        <v>44847</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44781</v>
+        <v>44721</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L29" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>10500</v>
+        <v>14750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>420</v>
+        <v>590</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44370</v>
+        <v>44811</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>10250</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>540</v>
+        <v>410</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44817</v>
+        <v>44846</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44809</v>
+        <v>44690</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44873</v>
+        <v>44816</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L33" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44837</v>
+        <v>44881</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L34" t="n">
         <v>8000</v>
       </c>
-      <c r="L34" t="n">
-        <v>9000</v>
-      </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44694</v>
+        <v>44880</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="K35" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>17750</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>710</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44473</v>
+        <v>44376</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,29 +2949,29 @@
         </is>
       </c>
       <c r="J36" t="n">
+        <v>400</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
         <v>500</v>
-      </c>
-      <c r="K36" t="n">
-        <v>8500</v>
-      </c>
-      <c r="L36" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M36" t="n">
-        <v>8750</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>350</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44883</v>
+        <v>44858</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
         <v>7000</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44714</v>
+        <v>44874</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44386</v>
+        <v>44446</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44847</v>
+        <v>44799</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L40" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M40" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44824</v>
+        <v>44873</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K41" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L41" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44316</v>
+        <v>44883</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,29 +3381,29 @@
         </is>
       </c>
       <c r="J42" t="n">
+        <v>380</v>
+      </c>
+      <c r="K42" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
         <v>300</v>
-      </c>
-      <c r="K42" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L42" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M42" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>660</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44855</v>
+        <v>44825</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="K43" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>45043</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K4" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44824</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44384</v>
+        <v>44824</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44827</v>
+        <v>44384</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44798</v>
+        <v>44827</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K8" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44803</v>
+        <v>44798</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44797</v>
+        <v>44803</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44386</v>
+        <v>44797</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K11" t="n">
         <v>11000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44356</v>
+        <v>44386</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44809</v>
+        <v>44356</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44484</v>
+        <v>44809</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L14" t="n">
         <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44848</v>
+        <v>44484</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44714</v>
+        <v>44848</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>44714</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>520</v>
       </c>
       <c r="K18" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L18" t="n">
         <v>13000</v>
       </c>
-      <c r="L18" t="n">
-        <v>14000</v>
-      </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K19" t="n">
         <v>13000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44817</v>
+        <v>44372</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44837</v>
+        <v>44817</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44694</v>
+        <v>44837</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K22" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>17750</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44466</v>
+        <v>44694</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K23" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>9750</v>
+        <v>17750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44473</v>
+        <v>44466</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44756</v>
+        <v>44473</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44876</v>
+        <v>44756</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44316</v>
+        <v>44876</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="K27" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44847</v>
+        <v>44316</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K28" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L28" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M28" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44721</v>
+        <v>44847</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K29" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>14750</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44811</v>
+        <v>44721</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L30" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>10250</v>
+        <v>14750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>410</v>
+        <v>590</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44846</v>
+        <v>44811</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M31" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44690</v>
+        <v>44846</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>17500</v>
+        <v>7750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>700</v>
+        <v>310</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44816</v>
+        <v>44690</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44881</v>
+        <v>44816</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
         <v>7000</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44376</v>
+        <v>44880</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K36" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44858</v>
+        <v>44376</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,29 +3021,29 @@
         </is>
       </c>
       <c r="J37" t="n">
+        <v>400</v>
+      </c>
+      <c r="K37" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>500</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L37" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M37" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44874</v>
+        <v>44858</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44446</v>
+        <v>44874</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>500</v>
       </c>
       <c r="K39" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L39" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44799</v>
+        <v>44446</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3240,13 +3240,13 @@
         <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L40" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44873</v>
+        <v>44799</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L41" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M41" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44883</v>
+        <v>44873</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="K42" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L42" t="n">
         <v>7000</v>
       </c>
-      <c r="L42" t="n">
-        <v>8000</v>
-      </c>
       <c r="M42" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,58 +3429,130 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>380</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>25</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>8</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>44825</v>
       </c>
-      <c r="E43" t="n">
-        <v>4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
         <v>440</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K44" t="n">
         <v>8000</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>9000</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M44" t="n">
         <v>8500</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
         <v>340</v>
       </c>
-      <c r="Q43" t="n">
-        <v>25</v>
-      </c>
-      <c r="R43" t="inlineStr">
+      <c r="Q44" t="n">
+        <v>25</v>
+      </c>
+      <c r="R44" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44848</v>
+        <v>45044</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44714</v>
+        <v>44848</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44377</v>
+        <v>44714</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>520</v>
       </c>
       <c r="K19" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L19" t="n">
         <v>13000</v>
       </c>
-      <c r="L19" t="n">
-        <v>14000</v>
-      </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K20" t="n">
         <v>13000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44817</v>
+        <v>44372</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44837</v>
+        <v>44817</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44694</v>
+        <v>44837</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K23" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>17750</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44466</v>
+        <v>44694</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K24" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>9750</v>
+        <v>17750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44473</v>
+        <v>44466</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44756</v>
+        <v>44473</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44876</v>
+        <v>44756</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44316</v>
+        <v>44876</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="K28" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44847</v>
+        <v>44316</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44721</v>
+        <v>44847</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K30" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>14750</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44811</v>
+        <v>44721</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L31" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>10250</v>
+        <v>14750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>410</v>
+        <v>590</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44846</v>
+        <v>44811</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M32" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44690</v>
+        <v>44846</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>7750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>700</v>
+        <v>310</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44816</v>
+        <v>44690</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44881</v>
+        <v>44816</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K36" t="n">
         <v>7000</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44376</v>
+        <v>44880</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K37" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44858</v>
+        <v>44376</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,29 +3093,29 @@
         </is>
       </c>
       <c r="J38" t="n">
+        <v>400</v>
+      </c>
+      <c r="K38" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
         <v>500</v>
-      </c>
-      <c r="K38" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L38" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M38" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44874</v>
+        <v>44858</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>500</v>
       </c>
       <c r="K39" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44446</v>
+        <v>44874</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3240,13 +3240,13 @@
         <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M40" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44799</v>
+        <v>44446</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3312,13 +3312,13 @@
         <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L41" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M41" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44873</v>
+        <v>44799</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M42" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44883</v>
+        <v>44873</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="K43" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L43" t="n">
         <v>7000</v>
       </c>
-      <c r="L43" t="n">
-        <v>8000</v>
-      </c>
       <c r="M43" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,58 +3501,130 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>380</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>25</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
         <v>44825</v>
       </c>
-      <c r="E44" t="n">
-        <v>4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
         <v>440</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K45" t="n">
         <v>8000</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>9000</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M45" t="n">
         <v>8500</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
         <v>340</v>
       </c>
-      <c r="Q44" t="n">
-        <v>25</v>
-      </c>
-      <c r="R44" t="inlineStr">
+      <c r="Q45" t="n">
+        <v>25</v>
+      </c>
+      <c r="R45" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44473</v>
+        <v>45049</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K26" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44756</v>
+        <v>44473</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44876</v>
+        <v>44756</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44316</v>
+        <v>44876</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44847</v>
+        <v>44316</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44721</v>
+        <v>44847</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K31" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>14750</v>
+        <v>7500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44811</v>
+        <v>44721</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L32" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>10250</v>
+        <v>14750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>410</v>
+        <v>590</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44846</v>
+        <v>44811</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M33" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44690</v>
+        <v>44846</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>7750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>700</v>
+        <v>310</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44816</v>
+        <v>44690</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44881</v>
+        <v>44816</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
         <v>7000</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44376</v>
+        <v>44880</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K38" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44858</v>
+        <v>44376</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,29 +3165,29 @@
         </is>
       </c>
       <c r="J39" t="n">
+        <v>400</v>
+      </c>
+      <c r="K39" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
         <v>500</v>
-      </c>
-      <c r="K39" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L39" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M39" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44874</v>
+        <v>44858</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3240,13 +3240,13 @@
         <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44446</v>
+        <v>44874</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3312,13 +3312,13 @@
         <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L41" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M41" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44799</v>
+        <v>44446</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3384,13 +3384,13 @@
         <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L42" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M42" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44873</v>
+        <v>44799</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L43" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M43" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44883</v>
+        <v>44873</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="K44" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L44" t="n">
         <v>7000</v>
       </c>
-      <c r="L44" t="n">
-        <v>8000</v>
-      </c>
       <c r="M44" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,58 +3573,130 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>380</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>25</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
         <v>44825</v>
       </c>
-      <c r="E45" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
         <v>440</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K46" t="n">
         <v>8000</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>9000</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M46" t="n">
         <v>8500</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
         <v>340</v>
       </c>
-      <c r="Q45" t="n">
-        <v>25</v>
-      </c>
-      <c r="R45" t="inlineStr">
+      <c r="Q46" t="n">
+        <v>25</v>
+      </c>
+      <c r="R46" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44827</v>
+        <v>45050</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44798</v>
+        <v>44827</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K9" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44803</v>
+        <v>44798</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44797</v>
+        <v>44803</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44386</v>
+        <v>44797</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K12" t="n">
         <v>11000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44356</v>
+        <v>44386</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44809</v>
+        <v>44356</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44484</v>
+        <v>44809</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
         <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45044</v>
+        <v>44484</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44848</v>
+        <v>45044</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44714</v>
+        <v>44848</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44377</v>
+        <v>44714</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1800,13 +1800,13 @@
         <v>520</v>
       </c>
       <c r="K20" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L20" t="n">
         <v>13000</v>
       </c>
-      <c r="L20" t="n">
-        <v>14000</v>
-      </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K21" t="n">
         <v>13000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44817</v>
+        <v>44372</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44837</v>
+        <v>44817</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44694</v>
+        <v>44837</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K24" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>17750</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44466</v>
+        <v>44694</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K25" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>9750</v>
+        <v>17750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45049</v>
+        <v>44466</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44473</v>
+        <v>45049</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K27" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44756</v>
+        <v>44473</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44876</v>
+        <v>44756</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44316</v>
+        <v>44876</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="K30" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44847</v>
+        <v>44316</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K31" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M31" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44721</v>
+        <v>44847</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K32" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>14750</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44811</v>
+        <v>44721</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L33" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>10250</v>
+        <v>14750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>410</v>
+        <v>590</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44846</v>
+        <v>44811</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M34" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44690</v>
+        <v>44846</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>7750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>700</v>
+        <v>310</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44816</v>
+        <v>44690</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44881</v>
+        <v>44816</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
         <v>7000</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44376</v>
+        <v>44880</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44858</v>
+        <v>44376</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,29 +3237,29 @@
         </is>
       </c>
       <c r="J40" t="n">
+        <v>400</v>
+      </c>
+      <c r="K40" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
         <v>500</v>
-      </c>
-      <c r="K40" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L40" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M40" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44874</v>
+        <v>44858</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3312,13 +3312,13 @@
         <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L41" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44446</v>
+        <v>44874</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3384,13 +3384,13 @@
         <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L42" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44799</v>
+        <v>44446</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3456,13 +3456,13 @@
         <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L43" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44873</v>
+        <v>44799</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L44" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M44" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44883</v>
+        <v>44873</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="K45" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L45" t="n">
         <v>7000</v>
       </c>
-      <c r="L45" t="n">
-        <v>8000</v>
-      </c>
       <c r="M45" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,58 +3645,130 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>380</v>
+      </c>
+      <c r="K46" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>25</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
         <v>44825</v>
       </c>
-      <c r="E46" t="n">
-        <v>4</v>
-      </c>
-      <c r="F46" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v>440</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>8000</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>9000</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M47" t="n">
         <v>8500</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
         <v>340</v>
       </c>
-      <c r="Q46" t="n">
-        <v>25</v>
-      </c>
-      <c r="R46" t="inlineStr">
+      <c r="Q47" t="n">
+        <v>25</v>
+      </c>
+      <c r="R47" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44781</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44883</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="K3" t="n">
         <v>7000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45043</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
         <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44384</v>
+        <v>44847</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>11750</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45050</v>
+        <v>44384</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44827</v>
+        <v>44799</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K10" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>10750</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44803</v>
+        <v>45044</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44797</v>
+        <v>44825</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44386</v>
+        <v>44756</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44809</v>
+        <v>45049</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44484</v>
+        <v>44876</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K16" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45044</v>
+        <v>44376</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44848</v>
+        <v>44721</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44714</v>
+        <v>44846</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>7750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>580</v>
+        <v>310</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44377</v>
+        <v>44466</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44370</v>
+        <v>44858</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44372</v>
+        <v>44798</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>10750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44817</v>
+        <v>44386</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44837</v>
+        <v>44316</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>16500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>660</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44694</v>
+        <v>44837</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K25" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>17750</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44466</v>
+        <v>44781</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2232,13 +2232,13 @@
         <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M26" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45049</v>
+        <v>44377</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44811</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M28" t="n">
-        <v>8750</v>
+        <v>10250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44756</v>
+        <v>44881</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44876</v>
+        <v>44873</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="K30" t="n">
         <v>6000</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44316</v>
+        <v>44809</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K31" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="L31" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>16500</v>
+        <v>9750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44847</v>
+        <v>45050</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44721</v>
+        <v>45043</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K33" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
         <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44811</v>
+        <v>44874</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L34" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="M34" t="n">
-        <v>10250</v>
+        <v>6500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44846</v>
+        <v>44370</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K35" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44816</v>
+        <v>44827</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K37" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44881</v>
+        <v>44484</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44880</v>
+        <v>44817</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44376</v>
+        <v>44880</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K40" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44858</v>
+        <v>44816</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K41" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L41" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44874</v>
+        <v>44694</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K42" t="n">
-        <v>6000</v>
+        <v>17500</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M42" t="n">
-        <v>6500</v>
+        <v>17750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>260</v>
+        <v>710</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44446</v>
+        <v>44848</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K43" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44799</v>
+        <v>44714</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L44" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44873</v>
+        <v>44803</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K45" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L45" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44883</v>
+        <v>44356</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L46" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M46" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44825</v>
+        <v>44473</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L47" t="n">
         <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>44384</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44883</v>
+        <v>45044</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>45043</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K4" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44874</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44824</v>
+        <v>44386</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -792,13 +792,13 @@
         <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44847</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44384</v>
+        <v>44694</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="K8" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>470</v>
+        <v>710</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44799</v>
+        <v>44756</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44797</v>
+        <v>44690</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45044</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44825</v>
+        <v>44873</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44756</v>
+        <v>44798</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>10750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44372</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45049</v>
+        <v>44809</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44876</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44721</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>14750</v>
+        <v>16500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44846</v>
+        <v>44837</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K19" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44466</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1800,13 +1800,13 @@
         <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44858</v>
+        <v>45050</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44798</v>
+        <v>44370</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K22" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>10750</v>
+        <v>13500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44386</v>
+        <v>45049</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44316</v>
+        <v>44855</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,29 +2085,29 @@
         </is>
       </c>
       <c r="J24" t="n">
+        <v>540</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
         <v>300</v>
-      </c>
-      <c r="K24" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L24" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M24" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>660</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44837</v>
+        <v>44825</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K25" t="n">
         <v>8000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44781</v>
+        <v>44847</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K26" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44377</v>
+        <v>44876</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K27" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44881</v>
+        <v>44803</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K29" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44873</v>
+        <v>44797</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44809</v>
+        <v>44880</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K31" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45050</v>
+        <v>44781</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45043</v>
+        <v>44721</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L33" t="n">
         <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44874</v>
+        <v>44848</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K34" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44370</v>
+        <v>44817</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44690</v>
+        <v>44883</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44827</v>
+        <v>44356</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L37" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M37" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44484</v>
+        <v>44827</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K38" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L38" t="n">
         <v>9000</v>
       </c>
-      <c r="L38" t="n">
-        <v>10000</v>
-      </c>
       <c r="M38" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K39" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L39" t="n">
         <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44880</v>
+        <v>44799</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L40" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M40" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44816</v>
+        <v>44484</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L41" t="n">
         <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44694</v>
+        <v>44824</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>17750</v>
+        <v>8500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K43" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L43" t="n">
         <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44714</v>
+        <v>44425</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3528,13 +3528,13 @@
         <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44803</v>
+        <v>44714</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44356</v>
+        <v>44881</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L46" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M46" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44473</v>
+        <v>44858</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,13 +3744,13 @@
         <v>500</v>
       </c>
       <c r="K47" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L47" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M47" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44384</v>
+        <v>44356</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45044</v>
+        <v>44798</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>10750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45043</v>
+        <v>44817</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44874</v>
+        <v>44803</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44386</v>
+        <v>44846</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44694</v>
+        <v>44484</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>17750</v>
+        <v>9500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>710</v>
+        <v>380</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44756</v>
+        <v>44858</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44690</v>
+        <v>44837</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44809</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44873</v>
+        <v>44372</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,29 +1221,29 @@
         </is>
       </c>
       <c r="J12" t="n">
+        <v>500</v>
+      </c>
+      <c r="K12" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
         <v>540</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44798</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>10750</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44384</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K14" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44809</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44756</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44372</v>
+        <v>44811</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>10250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>540</v>
+        <v>410</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>44714</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44837</v>
+        <v>44799</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44881</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45050</v>
+        <v>44876</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44370</v>
+        <v>44883</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44855</v>
+        <v>44781</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44825</v>
+        <v>44816</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K25" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44847</v>
+        <v>44721</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44876</v>
+        <v>45050</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44811</v>
+        <v>44797</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K28" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L28" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M28" t="n">
-        <v>10250</v>
+        <v>11500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44803</v>
+        <v>44694</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K29" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>9750</v>
+        <v>17750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44797</v>
+        <v>44855</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="K30" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44880</v>
+        <v>44825</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="K31" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M31" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44781</v>
+        <v>45044</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44721</v>
+        <v>44848</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K33" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>14750</v>
+        <v>7500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44848</v>
+        <v>44690</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44817</v>
+        <v>44847</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44883</v>
+        <v>44874</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K36" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L36" t="n">
         <v>7000</v>
       </c>
-      <c r="L36" t="n">
-        <v>8000</v>
-      </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44356</v>
+        <v>44873</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44816</v>
+        <v>45043</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="K39" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44799</v>
+        <v>44446</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3240,13 +3240,13 @@
         <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L40" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44484</v>
+        <v>44377</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K41" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>9500</v>
+        <v>12750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44824</v>
+        <v>44316</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K42" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M42" t="n">
-        <v>8500</v>
+        <v>16500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>340</v>
+        <v>660</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44846</v>
+        <v>44824</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44425</v>
+        <v>44473</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44714</v>
+        <v>44370</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K45" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L45" t="n">
         <v>14000</v>
       </c>
-      <c r="L45" t="n">
-        <v>15000</v>
-      </c>
       <c r="M45" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44881</v>
+        <v>44386</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L46" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M46" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44858</v>
+        <v>44880</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K47" t="n">
         <v>7000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44798</v>
+        <v>45044</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>10750</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44817</v>
+        <v>45043</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44803</v>
+        <v>44874</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44846</v>
+        <v>44386</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44694</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>17750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>380</v>
+        <v>710</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44858</v>
+        <v>44756</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44837</v>
+        <v>44690</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44809</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44372</v>
+        <v>44873</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44798</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>10750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44384</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44809</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44756</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44811</v>
+        <v>44372</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44714</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44799</v>
+        <v>44837</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K19" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44881</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
+        <v>400</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
         <v>500</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>300</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44876</v>
+        <v>45050</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44883</v>
+        <v>44370</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44781</v>
+        <v>44855</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K24" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44816</v>
+        <v>44825</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K25" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44721</v>
+        <v>44847</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K26" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>14750</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45050</v>
+        <v>44876</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44797</v>
+        <v>44811</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L28" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M28" t="n">
-        <v>11500</v>
+        <v>10250</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44694</v>
+        <v>44803</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K29" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>17750</v>
+        <v>9750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>710</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44855</v>
+        <v>44797</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44825</v>
+        <v>44880</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K31" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L31" t="n">
         <v>8000</v>
       </c>
-      <c r="L31" t="n">
-        <v>9000</v>
-      </c>
       <c r="M31" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45044</v>
+        <v>44781</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44848</v>
+        <v>44721</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44690</v>
+        <v>44848</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44847</v>
+        <v>44817</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44874</v>
+        <v>44883</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K36" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44873</v>
+        <v>44356</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,29 +3021,29 @@
         </is>
       </c>
       <c r="J37" t="n">
+        <v>500</v>
+      </c>
+      <c r="K37" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>540</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M37" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45043</v>
+        <v>44816</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44446</v>
+        <v>44799</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3240,13 +3240,13 @@
         <v>500</v>
       </c>
       <c r="K40" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L40" t="n">
         <v>11000</v>
       </c>
-      <c r="L40" t="n">
-        <v>12000</v>
-      </c>
       <c r="M40" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44377</v>
+        <v>44484</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44316</v>
+        <v>44824</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44824</v>
+        <v>44846</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K43" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L43" t="n">
         <v>8000</v>
       </c>
-      <c r="L43" t="n">
-        <v>9000</v>
-      </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44473</v>
+        <v>44425</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44370</v>
+        <v>44714</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44386</v>
+        <v>44881</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L46" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M46" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44880</v>
+        <v>44858</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
         <v>7000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44356</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44798</v>
+        <v>44690</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -576,13 +576,13 @@
         <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>10750</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44817</v>
+        <v>44484</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
         <v>9000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44803</v>
+        <v>44817</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K5" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
         <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44846</v>
+        <v>44781</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44356</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44484</v>
+        <v>44386</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44858</v>
+        <v>44837</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44837</v>
+        <v>44799</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44809</v>
+        <v>44694</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="K11" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>9750</v>
+        <v>17750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44372</v>
+        <v>44798</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>10750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1296,13 +1296,13 @@
         <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44384</v>
+        <v>44756</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>45044</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44756</v>
+        <v>45049</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
         <v>14000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44811</v>
+        <v>44446</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L17" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>10250</v>
+        <v>11500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44714</v>
+        <v>44809</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44799</v>
+        <v>44376</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,29 +1725,29 @@
         </is>
       </c>
       <c r="J19" t="n">
+        <v>400</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
         <v>500</v>
-      </c>
-      <c r="K19" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L19" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M19" t="n">
-        <v>10500</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>420</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44881</v>
+        <v>44372</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1800,13 +1800,13 @@
         <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44876</v>
+        <v>44370</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44883</v>
+        <v>44316</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45049</v>
+        <v>44825</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44781</v>
+        <v>44827</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K24" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44816</v>
+        <v>44883</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="K25" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44721</v>
+        <v>44473</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2232,13 +2232,13 @@
         <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>14750</v>
+        <v>8750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45050</v>
+        <v>45043</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="K27" t="n">
         <v>14000</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44797</v>
+        <v>44824</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44694</v>
+        <v>44848</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K29" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>17750</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>710</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44855</v>
+        <v>44425</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44825</v>
+        <v>44876</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K31" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L31" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M31" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45044</v>
+        <v>44873</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44848</v>
+        <v>44797</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K33" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44690</v>
+        <v>44811</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2808,13 +2808,13 @@
         <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>10250</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>700</v>
+        <v>410</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44847</v>
+        <v>44816</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44874</v>
+        <v>44377</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K36" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>6500</v>
+        <v>12750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44873</v>
+        <v>44714</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44827</v>
+        <v>44874</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45043</v>
+        <v>44880</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44446</v>
+        <v>44721</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3240,13 +3240,13 @@
         <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>11500</v>
+        <v>14750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>460</v>
+        <v>590</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44377</v>
+        <v>44803</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K41" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44316</v>
+        <v>44881</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,29 +3381,29 @@
         </is>
       </c>
       <c r="J42" t="n">
+        <v>500</v>
+      </c>
+      <c r="K42" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
         <v>300</v>
-      </c>
-      <c r="K42" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L42" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M42" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>660</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44824</v>
+        <v>44846</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K43" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L43" t="n">
         <v>8000</v>
       </c>
-      <c r="L43" t="n">
-        <v>9000</v>
-      </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44473</v>
+        <v>45050</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K44" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44370</v>
+        <v>44858</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M45" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K46" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L46" t="n">
         <v>12000</v>
       </c>
       <c r="M46" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44880</v>
+        <v>44847</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K47" t="n">
         <v>7000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44690</v>
+        <v>44721</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>700</v>
+        <v>590</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44484</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44817</v>
+        <v>45043</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44781</v>
+        <v>44690</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -792,13 +792,13 @@
         <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44356</v>
+        <v>44386</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -864,13 +864,13 @@
         <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44386</v>
+        <v>44811</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>10250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44837</v>
+        <v>45044</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44799</v>
+        <v>44847</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44694</v>
+        <v>44858</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>17750</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>710</v>
+        <v>300</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44798</v>
+        <v>44781</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
         <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>10750</v>
+        <v>10500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44694</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K13" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>9750</v>
+        <v>17750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44756</v>
+        <v>44824</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45044</v>
+        <v>44484</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45049</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44446</v>
+        <v>44372</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1584,13 +1584,13 @@
         <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44809</v>
+        <v>44798</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M18" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44376</v>
+        <v>44827</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44372</v>
+        <v>44876</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44370</v>
+        <v>44817</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44316</v>
+        <v>44816</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K22" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="L22" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>16500</v>
+        <v>9750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44825</v>
+        <v>44376</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44827</v>
+        <v>44797</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44883</v>
+        <v>44809</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L25" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44473</v>
+        <v>44316</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K26" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M26" t="n">
-        <v>8750</v>
+        <v>16500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>350</v>
+        <v>660</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45043</v>
+        <v>44848</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44824</v>
+        <v>44873</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44848</v>
+        <v>45050</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="K29" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44425</v>
+        <v>44874</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>11750</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44876</v>
+        <v>44714</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44873</v>
+        <v>44356</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,29 +2661,29 @@
         </is>
       </c>
       <c r="J32" t="n">
+        <v>500</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
         <v>540</v>
-      </c>
-      <c r="K32" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L32" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M32" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>260</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44797</v>
+        <v>44466</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44811</v>
+        <v>44473</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L34" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>10250</v>
+        <v>8750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44816</v>
+        <v>44883</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="K35" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M35" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44377</v>
+        <v>44880</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K36" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M36" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44714</v>
+        <v>44825</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44874</v>
+        <v>44803</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K38" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L38" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44880</v>
+        <v>44384</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>560</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44721</v>
+        <v>44370</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K40" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M40" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44803</v>
+        <v>44799</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M41" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44881</v>
+        <v>44855</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K42" t="n">
         <v>7000</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44846</v>
+        <v>44756</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K43" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45050</v>
+        <v>44846</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K44" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M44" t="n">
-        <v>14500</v>
+        <v>7750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>580</v>
+        <v>310</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44858</v>
+        <v>44837</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K45" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44384</v>
+        <v>45049</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K46" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L46" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44847</v>
+        <v>44881</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
         <v>7000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44881</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -504,13 +504,13 @@
         <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44721</v>
+        <v>44799</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -576,13 +576,13 @@
         <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>14750</v>
+        <v>10500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>590</v>
+        <v>420</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45043</v>
+        <v>44855</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>320</v>
+        <v>540</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44690</v>
+        <v>44803</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>9750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>700</v>
+        <v>390</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44386</v>
+        <v>44756</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44811</v>
+        <v>44847</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>10250</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45044</v>
+        <v>44694</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>17750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>580</v>
+        <v>710</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44847</v>
+        <v>44484</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44858</v>
+        <v>44781</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44781</v>
+        <v>44883</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44694</v>
+        <v>44858</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M13" t="n">
-        <v>17750</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>710</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44824</v>
+        <v>44798</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44484</v>
+        <v>44809</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
         <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44356</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44372</v>
+        <v>44837</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44798</v>
+        <v>44721</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="L18" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44827</v>
+        <v>44873</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44876</v>
+        <v>44848</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44817</v>
+        <v>45043</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="K21" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44816</v>
+        <v>44316</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M22" t="n">
-        <v>9750</v>
+        <v>16500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>390</v>
+        <v>660</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44797</v>
+        <v>44876</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44809</v>
+        <v>44377</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2160,13 +2160,13 @@
         <v>520</v>
       </c>
       <c r="K25" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44316</v>
+        <v>44797</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K26" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L26" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M26" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44848</v>
+        <v>44874</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L27" t="n">
         <v>7000</v>
       </c>
-      <c r="L27" t="n">
-        <v>8000</v>
-      </c>
       <c r="M27" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44873</v>
+        <v>44827</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45050</v>
+        <v>44817</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44874</v>
+        <v>44446</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2520,13 +2520,13 @@
         <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44714</v>
+        <v>44846</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>7750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>580</v>
+        <v>310</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44356</v>
+        <v>45044</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44466</v>
+        <v>44824</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44473</v>
+        <v>44370</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K34" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M34" t="n">
-        <v>8750</v>
+        <v>13500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44883</v>
+        <v>44690</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44880</v>
+        <v>44466</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44825</v>
+        <v>44386</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L37" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M37" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44803</v>
+        <v>44880</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K38" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44384</v>
+        <v>44816</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K39" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L39" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44370</v>
+        <v>45050</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="K40" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44799</v>
+        <v>45049</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K41" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L41" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44855</v>
+        <v>44473</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L42" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44756</v>
+        <v>44384</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44846</v>
+        <v>44825</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K44" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44837</v>
+        <v>44376</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45049</v>
+        <v>44714</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
         <v>14000</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44881</v>
+        <v>44811</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M47" t="n">
-        <v>7500</v>
+        <v>10250</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44721</v>
+        <v>45114</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
+        <v>300</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
         <v>500</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14500</v>
-      </c>
-      <c r="L18" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" t="n">
-        <v>14750</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>590</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44873</v>
+        <v>44721</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>14750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>260</v>
+        <v>590</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44848</v>
+        <v>44873</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L20" t="n">
         <v>7000</v>
       </c>
-      <c r="L20" t="n">
-        <v>8000</v>
-      </c>
       <c r="M20" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45043</v>
+        <v>44848</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44316</v>
+        <v>45043</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="K22" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44372</v>
+        <v>44316</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44876</v>
+        <v>44372</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44377</v>
+        <v>44876</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K25" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44797</v>
+        <v>44377</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="K26" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L26" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44874</v>
+        <v>44797</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44827</v>
+        <v>44874</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44817</v>
+        <v>44827</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L29" t="n">
         <v>9000</v>
       </c>
-      <c r="L29" t="n">
-        <v>10000</v>
-      </c>
       <c r="M29" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44446</v>
+        <v>44817</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K30" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44846</v>
+        <v>44446</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45044</v>
+        <v>44846</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>7750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>580</v>
+        <v>310</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44824</v>
+        <v>45044</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44370</v>
+        <v>44824</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44690</v>
+        <v>44370</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44466</v>
+        <v>44690</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2952,13 +2952,13 @@
         <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44386</v>
+        <v>44466</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L37" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44880</v>
+        <v>44386</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44816</v>
+        <v>44880</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K39" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45050</v>
+        <v>44816</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M40" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K41" t="n">
         <v>14000</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44473</v>
+        <v>45049</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K42" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44384</v>
+        <v>44473</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44825</v>
+        <v>44384</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K44" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44376</v>
+        <v>44825</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K45" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44714</v>
+        <v>44376</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M46" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44811</v>
+        <v>44714</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,31 +3744,103 @@
         <v>400</v>
       </c>
       <c r="K47" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>580</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>25</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>8</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>400</v>
+      </c>
+      <c r="K48" t="n">
         <v>10000</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L48" t="n">
         <v>10500</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M48" t="n">
         <v>10250</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
         <v>410</v>
       </c>
-      <c r="Q47" t="n">
-        <v>25</v>
-      </c>
-      <c r="R47" t="inlineStr">
+      <c r="Q48" t="n">
+        <v>25</v>
+      </c>
+      <c r="R48" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3846,6 +3846,78 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>400</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>25</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44714</v>
+        <v>45124</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,13 +3744,13 @@
         <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44811</v>
+        <v>44714</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3816,13 +3816,13 @@
         <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>10250</v>
+        <v>14500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>410</v>
+        <v>580</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45121</v>
+        <v>44811</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3888,31 +3888,103 @@
         <v>400</v>
       </c>
       <c r="K49" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>10500</v>
+      </c>
+      <c r="M49" t="n">
+        <v>10250</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>410</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>25</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>8</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>400</v>
+      </c>
+      <c r="K50" t="n">
         <v>12000</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L50" t="n">
         <v>13000</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M50" t="n">
         <v>12500</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>500</v>
       </c>
-      <c r="Q49" t="n">
-        <v>25</v>
-      </c>
-      <c r="R49" t="inlineStr">
+      <c r="Q50" t="n">
+        <v>25</v>
+      </c>
+      <c r="R50" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44873</v>
+        <v>45133</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44848</v>
+        <v>44873</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L21" t="n">
         <v>7000</v>
       </c>
-      <c r="L21" t="n">
-        <v>8000</v>
-      </c>
       <c r="M21" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45043</v>
+        <v>44848</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44316</v>
+        <v>45043</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="K23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44372</v>
+        <v>44316</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44876</v>
+        <v>44372</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44377</v>
+        <v>44876</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K26" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44797</v>
+        <v>44377</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="K27" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44874</v>
+        <v>44797</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K28" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L28" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M28" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44827</v>
+        <v>44874</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44817</v>
+        <v>44827</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K30" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L30" t="n">
         <v>9000</v>
       </c>
-      <c r="L30" t="n">
-        <v>10000</v>
-      </c>
       <c r="M30" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44446</v>
+        <v>44817</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K31" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L31" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44846</v>
+        <v>44446</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M32" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45044</v>
+        <v>44846</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>7750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>580</v>
+        <v>310</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44824</v>
+        <v>45044</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44370</v>
+        <v>44824</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44690</v>
+        <v>44370</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K36" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M36" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44466</v>
+        <v>44690</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3024,13 +3024,13 @@
         <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44386</v>
+        <v>44466</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44880</v>
+        <v>44386</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44816</v>
+        <v>44880</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K40" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45050</v>
+        <v>44816</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K42" t="n">
         <v>14000</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44473</v>
+        <v>45049</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K43" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44384</v>
+        <v>44473</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44825</v>
+        <v>44384</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44376</v>
+        <v>44825</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K46" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45124</v>
+        <v>44376</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,13 +3744,13 @@
         <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L47" t="n">
         <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44714</v>
+        <v>45124</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3816,13 +3816,13 @@
         <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44811</v>
+        <v>44714</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3888,13 +3888,13 @@
         <v>400</v>
       </c>
       <c r="K49" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>10250</v>
+        <v>14500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>410</v>
+        <v>580</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45121</v>
+        <v>44811</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3960,31 +3960,103 @@
         <v>400</v>
       </c>
       <c r="K50" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>10500</v>
+      </c>
+      <c r="M50" t="n">
+        <v>10250</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>410</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>25</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>8</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>400</v>
+      </c>
+      <c r="K51" t="n">
         <v>12000</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L51" t="n">
         <v>13000</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M51" t="n">
         <v>12500</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
         <v>500</v>
       </c>
-      <c r="Q50" t="n">
-        <v>25</v>
-      </c>
-      <c r="R50" t="inlineStr">
+      <c r="Q51" t="n">
+        <v>25</v>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44881</v>
+        <v>44356</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -504,13 +504,13 @@
         <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44799</v>
+        <v>44384</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
         <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44855</v>
+        <v>45121</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44803</v>
+        <v>44809</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
         <v>9500</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44756</v>
+        <v>44797</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44847</v>
+        <v>44714</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44694</v>
+        <v>44876</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="K9" t="n">
-        <v>17500</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>17750</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>710</v>
+        <v>260</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44484</v>
+        <v>44848</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44781</v>
+        <v>44377</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>10500</v>
+        <v>12750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44883</v>
+        <v>44798</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>7500</v>
+        <v>10750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44858</v>
+        <v>44880</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
         <v>7000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44798</v>
+        <v>44721</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="L14" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44809</v>
+        <v>44824</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44356</v>
+        <v>44799</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44837</v>
+        <v>45044</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45114</v>
+        <v>44881</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
+        <v>500</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
         <v>300</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L18" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M18" t="n">
-        <v>12500</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>500</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44721</v>
+        <v>44690</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>14750</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>590</v>
+        <v>700</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45133</v>
+        <v>44874</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44873</v>
+        <v>45049</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44848</v>
+        <v>44847</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K22" t="n">
         <v>7000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45043</v>
+        <v>45124</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44316</v>
+        <v>44873</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M24" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44372</v>
+        <v>44473</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2160,13 +2160,13 @@
         <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44876</v>
+        <v>44816</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>460</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44377</v>
+        <v>44372</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M27" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44797</v>
+        <v>44827</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K28" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44874</v>
+        <v>44466</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44827</v>
+        <v>44817</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K30" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L30" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44817</v>
+        <v>45050</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="K31" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44446</v>
+        <v>44316</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L32" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M32" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44846</v>
+        <v>44376</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M33" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45044</v>
+        <v>44855</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44824</v>
+        <v>44386</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M35" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44370</v>
+        <v>44694</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="L36" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>13500</v>
+        <v>17750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>540</v>
+        <v>710</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44690</v>
+        <v>44858</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44466</v>
+        <v>44837</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K38" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44386</v>
+        <v>44883</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K39" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44880</v>
+        <v>44811</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L40" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M40" t="n">
-        <v>7500</v>
+        <v>10250</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44816</v>
+        <v>44803</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45050</v>
+        <v>44484</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M42" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45049</v>
+        <v>45114</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3456,13 +3456,13 @@
         <v>300</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M43" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44473</v>
+        <v>44425</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44384</v>
+        <v>44825</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="K45" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44825</v>
+        <v>44781</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M46" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44376</v>
+        <v>44370</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K47" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45124</v>
+        <v>45043</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K48" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44714</v>
+        <v>44756</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44811</v>
+        <v>44846</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K50" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L50" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>10250</v>
+        <v>7750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P51" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44356</v>
+        <v>44881</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -504,13 +504,13 @@
         <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44384</v>
+        <v>44799</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
         <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45121</v>
+        <v>44855</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44809</v>
+        <v>44803</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
         <v>9500</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44797</v>
+        <v>44756</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44714</v>
+        <v>44847</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44876</v>
+        <v>44694</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>17500</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>17750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>260</v>
+        <v>710</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44848</v>
+        <v>44484</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44377</v>
+        <v>44781</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>12750</v>
+        <v>10500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44798</v>
+        <v>44883</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K12" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44880</v>
+        <v>44858</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
         <v>7000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44721</v>
+        <v>44798</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44824</v>
+        <v>44809</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44799</v>
+        <v>44356</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45044</v>
+        <v>44837</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44881</v>
+        <v>45114</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
+        <v>300</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
         <v>500</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M18" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>300</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44690</v>
+        <v>44721</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>700</v>
+        <v>590</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44874</v>
+        <v>45133</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
+        <v>400</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
         <v>500</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45049</v>
+        <v>44873</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K22" t="n">
         <v>7000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45124</v>
+        <v>45043</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K23" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44873</v>
+        <v>44316</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44473</v>
+        <v>44372</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2160,13 +2160,13 @@
         <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>8750</v>
+        <v>13500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44816</v>
+        <v>44876</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44372</v>
+        <v>44377</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K27" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L27" t="n">
         <v>13000</v>
       </c>
-      <c r="L27" t="n">
-        <v>14000</v>
-      </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44827</v>
+        <v>44797</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44466</v>
+        <v>44874</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44817</v>
+        <v>44827</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K30" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L30" t="n">
         <v>9000</v>
       </c>
-      <c r="L30" t="n">
-        <v>10000</v>
-      </c>
       <c r="M30" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45050</v>
+        <v>44817</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44316</v>
+        <v>44446</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L32" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M32" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44376</v>
+        <v>44846</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M33" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44855</v>
+        <v>45044</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44386</v>
+        <v>44824</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44694</v>
+        <v>44370</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K36" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M36" t="n">
-        <v>17750</v>
+        <v>13500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>710</v>
+        <v>540</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44858</v>
+        <v>44690</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44837</v>
+        <v>44466</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44883</v>
+        <v>44386</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44811</v>
+        <v>44880</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K40" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>10250</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44484</v>
+        <v>45050</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K42" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45114</v>
+        <v>45049</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3456,13 +3456,13 @@
         <v>300</v>
       </c>
       <c r="K43" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44425</v>
+        <v>44473</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44825</v>
+        <v>44384</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44781</v>
+        <v>44825</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K46" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44370</v>
+        <v>44376</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L47" t="n">
         <v>13000</v>
       </c>
-      <c r="L47" t="n">
-        <v>14000</v>
-      </c>
       <c r="M47" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45043</v>
+        <v>45124</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44756</v>
+        <v>44714</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44846</v>
+        <v>44811</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K50" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L50" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M50" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45133</v>
+        <v>45121</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P51" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44356</v>
+        <v>44873</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44384</v>
+        <v>44811</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M3" t="n">
-        <v>11750</v>
+        <v>10250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44816</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45121</v>
+        <v>45050</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44809</v>
+        <v>44827</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K6" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44797</v>
+        <v>44386</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
         <v>11000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44714</v>
+        <v>44837</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44876</v>
+        <v>44384</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>460</v>
+        <v>560</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>11750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>260</v>
+        <v>470</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44848</v>
+        <v>44370</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44377</v>
+        <v>44881</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44798</v>
+        <v>44817</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K12" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44880</v>
+        <v>44824</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44721</v>
+        <v>44803</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>14750</v>
+        <v>9750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44824</v>
+        <v>44798</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44799</v>
+        <v>44876</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45044</v>
+        <v>44377</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44881</v>
+        <v>44847</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K18" t="n">
         <v>7000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44690</v>
+        <v>45133</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44874</v>
+        <v>44425</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>11750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>470</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45049</v>
+        <v>44446</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44847</v>
+        <v>44721</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L22" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45124</v>
+        <v>44846</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K23" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>510</v>
+        <v>310</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
         <v>6000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44473</v>
+        <v>44316</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K25" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M25" t="n">
-        <v>8750</v>
+        <v>16500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>350</v>
+        <v>660</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44816</v>
+        <v>44690</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44372</v>
+        <v>44855</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44827</v>
+        <v>44473</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L28" t="n">
         <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44466</v>
+        <v>44756</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2448,13 +2448,13 @@
         <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44817</v>
+        <v>44484</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K30" t="n">
         <v>9000</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45050</v>
+        <v>45049</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K31" t="n">
         <v>14000</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44316</v>
+        <v>44694</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K32" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="L32" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M32" t="n">
-        <v>16500</v>
+        <v>17750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>660</v>
+        <v>710</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44376</v>
+        <v>45114</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K33" t="n">
         <v>12000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44855</v>
+        <v>45044</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44386</v>
+        <v>44797</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K35" t="n">
         <v>11000</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44694</v>
+        <v>44781</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
       <c r="L36" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M36" t="n">
-        <v>17750</v>
+        <v>10500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>710</v>
+        <v>420</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44858</v>
+        <v>44714</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44837</v>
+        <v>44809</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>520</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L38" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44883</v>
+        <v>45124</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44811</v>
+        <v>44825</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K40" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>10250</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44803</v>
+        <v>44356</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M41" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44484</v>
+        <v>44372</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L42" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M42" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K43" t="n">
         <v>12000</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3528,13 +3528,13 @@
         <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M44" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44825</v>
+        <v>44466</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44781</v>
+        <v>45043</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K46" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L46" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44370</v>
+        <v>44858</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M47" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45043</v>
+        <v>44799</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M48" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44756</v>
+        <v>44883</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K49" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L49" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M49" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44846</v>
+        <v>44880</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K50" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L50" t="n">
         <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45133</v>
+        <v>44848</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L51" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M51" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44873</v>
+        <v>44356</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,29 +501,29 @@
         </is>
       </c>
       <c r="J2" t="n">
+        <v>500</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>540</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44811</v>
+        <v>44384</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L3" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>10250</v>
+        <v>11750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44816</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45050</v>
+        <v>45121</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44827</v>
+        <v>44809</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44386</v>
+        <v>44797</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K7" t="n">
         <v>11000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44837</v>
+        <v>44714</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44384</v>
+        <v>44876</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="K9" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>11750</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44370</v>
+        <v>44848</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44881</v>
+        <v>44377</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44817</v>
+        <v>44798</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>9500</v>
+        <v>10750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44824</v>
+        <v>44880</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L13" t="n">
         <v>8000</v>
       </c>
-      <c r="L13" t="n">
-        <v>9000</v>
-      </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44803</v>
+        <v>44721</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>390</v>
+        <v>590</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44798</v>
+        <v>44824</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44876</v>
+        <v>44799</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>45044</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44847</v>
+        <v>44881</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
         <v>7000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45133</v>
+        <v>44690</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44425</v>
+        <v>44874</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>11750</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44446</v>
+        <v>45049</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44721</v>
+        <v>44847</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K22" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M22" t="n">
-        <v>14750</v>
+        <v>7500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44846</v>
+        <v>45124</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44874</v>
+        <v>44873</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K24" t="n">
         <v>6000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44316</v>
+        <v>44473</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="L25" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M25" t="n">
-        <v>16500</v>
+        <v>8750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>660</v>
+        <v>350</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44690</v>
+        <v>44816</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>9750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>700</v>
+        <v>390</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44855</v>
+        <v>44372</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,29 +2301,29 @@
         </is>
       </c>
       <c r="J27" t="n">
+        <v>500</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
         <v>540</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L27" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M27" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>300</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44827</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K28" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L28" t="n">
         <v>9000</v>
       </c>
       <c r="M28" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44756</v>
+        <v>44466</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2448,13 +2448,13 @@
         <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44484</v>
+        <v>44817</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K30" t="n">
         <v>9000</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K31" t="n">
         <v>14000</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44694</v>
+        <v>44316</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M32" t="n">
-        <v>17750</v>
+        <v>16500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>710</v>
+        <v>660</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45114</v>
+        <v>44376</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
         <v>12000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45044</v>
+        <v>44855</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44797</v>
+        <v>44386</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
         <v>11000</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44781</v>
+        <v>44694</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K36" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="L36" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M36" t="n">
-        <v>10500</v>
+        <v>17750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>420</v>
+        <v>710</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44714</v>
+        <v>44858</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44809</v>
+        <v>44837</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>520</v>
       </c>
       <c r="K38" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M38" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45124</v>
+        <v>44883</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K39" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44825</v>
+        <v>44811</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>10250</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44356</v>
+        <v>44803</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L41" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44372</v>
+        <v>44484</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M42" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45121</v>
+        <v>45114</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K43" t="n">
         <v>12000</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3528,13 +3528,13 @@
         <v>400</v>
       </c>
       <c r="K44" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L44" t="n">
         <v>12000</v>
       </c>
-      <c r="L44" t="n">
-        <v>13000</v>
-      </c>
       <c r="M44" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44466</v>
+        <v>44825</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K45" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45043</v>
+        <v>44781</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M46" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44858</v>
+        <v>44370</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K47" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44799</v>
+        <v>45043</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K48" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44883</v>
+        <v>44756</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K49" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44880</v>
+        <v>44846</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K50" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L50" t="n">
         <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44848</v>
+        <v>45133</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K51" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L51" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M51" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44837</v>
+        <v>45163</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44384</v>
+        <v>44837</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44881</v>
+        <v>44370</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44817</v>
+        <v>44881</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M12" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44803</v>
+        <v>44824</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44798</v>
+        <v>44803</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44876</v>
+        <v>44798</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>10750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>44876</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K17" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44847</v>
+        <v>44377</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>520</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45133</v>
+        <v>44847</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44425</v>
+        <v>45133</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1800,13 +1800,13 @@
         <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L21" t="n">
         <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44721</v>
+        <v>44446</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1944,13 +1944,13 @@
         <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>14750</v>
+        <v>11500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44846</v>
+        <v>44721</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>310</v>
+        <v>590</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44874</v>
+        <v>44846</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K24" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L24" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44316</v>
+        <v>44874</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L25" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44690</v>
+        <v>44316</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K26" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L26" t="n">
         <v>17000</v>
       </c>
-      <c r="L26" t="n">
-        <v>18000</v>
-      </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44855</v>
+        <v>44690</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L27" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M27" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44855</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K28" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M28" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44756</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44484</v>
+        <v>44756</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2520,13 +2520,13 @@
         <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45049</v>
+        <v>44484</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44694</v>
+        <v>45049</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>17750</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>710</v>
+        <v>580</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45114</v>
+        <v>44694</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>12500</v>
+        <v>17750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45044</v>
+        <v>45114</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44797</v>
+        <v>45044</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K35" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44781</v>
+        <v>44797</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K36" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L36" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M36" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44714</v>
+        <v>44781</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3024,13 +3024,13 @@
         <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44809</v>
+        <v>44714</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45124</v>
+        <v>44809</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K39" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44825</v>
+        <v>45124</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44356</v>
+        <v>44825</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L41" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M41" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44372</v>
+        <v>44356</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45121</v>
+        <v>44372</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L43" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M43" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44376</v>
+        <v>45121</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44466</v>
+        <v>44376</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3600,13 +3600,13 @@
         <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M45" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45043</v>
+        <v>44466</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M46" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44858</v>
+        <v>45043</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K47" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M47" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44799</v>
+        <v>44858</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3816,13 +3816,13 @@
         <v>500</v>
       </c>
       <c r="K48" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L48" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M48" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44883</v>
+        <v>44799</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K49" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L49" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M49" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44880</v>
+        <v>44883</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>560</v>
+        <v>380</v>
       </c>
       <c r="K50" t="n">
         <v>7000</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44848</v>
+        <v>44880</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K51" t="n">
         <v>7000</v>
@@ -4057,6 +4057,78 @@
         <v>25</v>
       </c>
       <c r="R51" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>800</v>
+      </c>
+      <c r="K52" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>25</v>
+      </c>
+      <c r="R52" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44880</v>
+        <v>45166</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K51" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L51" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M51" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44848</v>
+        <v>44880</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K52" t="n">
         <v>7000</v>
@@ -4129,6 +4129,78 @@
         <v>25</v>
       </c>
       <c r="R52" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>8</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>800</v>
+      </c>
+      <c r="K53" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>25</v>
+      </c>
+      <c r="R53" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44714</v>
+        <v>45176</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44809</v>
+        <v>44714</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45124</v>
+        <v>44809</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K40" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L40" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M40" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44825</v>
+        <v>45124</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L41" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44356</v>
+        <v>44825</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44372</v>
+        <v>44356</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45121</v>
+        <v>44372</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L44" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M44" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44376</v>
+        <v>45121</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44466</v>
+        <v>44376</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M46" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45043</v>
+        <v>44466</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M47" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44858</v>
+        <v>45043</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K48" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44799</v>
+        <v>44858</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3888,13 +3888,13 @@
         <v>500</v>
       </c>
       <c r="K49" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L49" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M49" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44883</v>
+        <v>44799</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K50" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L50" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M50" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45166</v>
+        <v>44883</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K51" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L51" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M51" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44880</v>
+        <v>45166</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K52" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L52" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M52" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44848</v>
+        <v>44880</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K53" t="n">
         <v>7000</v>
@@ -4201,6 +4201,78 @@
         <v>25</v>
       </c>
       <c r="R53" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>800</v>
+      </c>
+      <c r="K54" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>25</v>
+      </c>
+      <c r="R54" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44798</v>
+        <v>45177</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
         <v>11000</v>
       </c>
       <c r="M16" t="n">
-        <v>10750</v>
+        <v>10500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44876</v>
+        <v>44798</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="L17" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M17" t="n">
-        <v>6500</v>
+        <v>10750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44377</v>
+        <v>44876</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K18" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44847</v>
+        <v>44377</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1728,13 +1728,13 @@
         <v>520</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45133</v>
+        <v>44847</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44425</v>
+        <v>45133</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1872,13 +1872,13 @@
         <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L22" t="n">
         <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44721</v>
+        <v>44446</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2016,13 +2016,13 @@
         <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>14750</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44846</v>
+        <v>44721</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>310</v>
+        <v>590</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44874</v>
+        <v>44846</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K25" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L25" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44316</v>
+        <v>44874</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44690</v>
+        <v>44316</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K27" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L27" t="n">
         <v>17000</v>
       </c>
-      <c r="L27" t="n">
-        <v>18000</v>
-      </c>
       <c r="M27" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44855</v>
+        <v>44690</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44855</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K29" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44756</v>
+        <v>44473</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44484</v>
+        <v>44756</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2592,13 +2592,13 @@
         <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45049</v>
+        <v>44484</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44694</v>
+        <v>45049</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K33" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>17750</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>710</v>
+        <v>580</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45114</v>
+        <v>44694</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K34" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="L34" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>12500</v>
+        <v>17750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45044</v>
+        <v>45114</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44797</v>
+        <v>45044</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K36" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44781</v>
+        <v>44797</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K37" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L37" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M37" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45176</v>
+        <v>44781</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44714</v>
+        <v>45176</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44809</v>
+        <v>44714</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L40" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45124</v>
+        <v>44809</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K41" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44825</v>
+        <v>45124</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M42" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44356</v>
+        <v>44825</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44372</v>
+        <v>44356</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45121</v>
+        <v>44372</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K45" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M45" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44376</v>
+        <v>45121</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44466</v>
+        <v>44376</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,13 +3744,13 @@
         <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45043</v>
+        <v>44466</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M48" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44858</v>
+        <v>45043</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K49" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44799</v>
+        <v>44858</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3960,13 +3960,13 @@
         <v>500</v>
       </c>
       <c r="K50" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L50" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44883</v>
+        <v>44799</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K51" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L51" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M51" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45166</v>
+        <v>44883</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K52" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L52" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M52" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44880</v>
+        <v>45166</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K53" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L53" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M53" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44848</v>
+        <v>44880</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K54" t="n">
         <v>7000</v>
@@ -4273,6 +4273,78 @@
         <v>25</v>
       </c>
       <c r="R54" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>800</v>
+      </c>
+      <c r="K55" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>25</v>
+      </c>
+      <c r="R55" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
         <v>6000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44811</v>
+        <v>44809</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L3" t="n">
         <v>10000</v>
       </c>
-      <c r="L3" t="n">
-        <v>10500</v>
-      </c>
       <c r="M3" t="n">
-        <v>10250</v>
+        <v>9750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44816</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45050</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44827</v>
+        <v>45163</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44386</v>
+        <v>44824</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -864,13 +864,13 @@
         <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45163</v>
+        <v>44816</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -936,13 +936,13 @@
         <v>600</v>
       </c>
       <c r="K8" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L8" t="n">
         <v>10000</v>
       </c>
-      <c r="L8" t="n">
-        <v>11000</v>
-      </c>
       <c r="M8" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44837</v>
+        <v>44825</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K9" t="n">
         <v>8000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44384</v>
+        <v>44803</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44370</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
         <v>13000</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44881</v>
+        <v>45176</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44817</v>
+        <v>44876</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44824</v>
+        <v>45049</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44803</v>
+        <v>44376</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45177</v>
+        <v>45043</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44798</v>
+        <v>44858</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44876</v>
+        <v>44848</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="K18" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44377</v>
+        <v>44873</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="K19" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M19" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44847</v>
+        <v>44372</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45133</v>
+        <v>44827</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44425</v>
+        <v>44690</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1944,13 +1944,13 @@
         <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>11750</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44446</v>
+        <v>44880</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44721</v>
+        <v>45166</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M24" t="n">
-        <v>14750</v>
+        <v>10500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>590</v>
+        <v>420</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44846</v>
+        <v>44797</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K25" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L25" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2232,13 +2232,13 @@
         <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44316</v>
+        <v>45114</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2304,13 +2304,13 @@
         <v>300</v>
       </c>
       <c r="K27" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>660</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44690</v>
+        <v>44799</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44855</v>
+        <v>44384</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="K29" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44473</v>
+        <v>45121</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,29 +2517,29 @@
         </is>
       </c>
       <c r="J30" t="n">
+        <v>400</v>
+      </c>
+      <c r="K30" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
         <v>500</v>
-      </c>
-      <c r="K30" t="n">
-        <v>8500</v>
-      </c>
-      <c r="L30" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M30" t="n">
-        <v>8750</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>350</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44756</v>
+        <v>45133</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2592,13 +2592,13 @@
         <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44484</v>
+        <v>44316</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M32" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>380</v>
+        <v>660</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45049</v>
+        <v>44883</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,29 +2733,29 @@
         </is>
       </c>
       <c r="J33" t="n">
+        <v>380</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>300</v>
-      </c>
-      <c r="K33" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>14500</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>580</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44694</v>
+        <v>44817</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="K34" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>17750</v>
+        <v>9500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>710</v>
+        <v>380</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45114</v>
+        <v>44370</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K35" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45044</v>
+        <v>44837</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44797</v>
+        <v>45177</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L37" t="n">
         <v>11000</v>
       </c>
-      <c r="L37" t="n">
-        <v>12000</v>
-      </c>
       <c r="M37" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44781</v>
+        <v>44714</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45176</v>
+        <v>45124</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L39" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M39" t="n">
-        <v>10500</v>
+        <v>12750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44714</v>
+        <v>45050</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K40" t="n">
         <v>14000</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44809</v>
+        <v>44473</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M41" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45124</v>
+        <v>44377</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K42" t="n">
         <v>12500</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44825</v>
+        <v>44721</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>14750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44356</v>
+        <v>44811</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L44" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M44" t="n">
-        <v>13500</v>
+        <v>10250</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>540</v>
+        <v>410</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44372</v>
+        <v>44386</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3600,13 +3600,13 @@
         <v>500</v>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M45" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45121</v>
+        <v>44847</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K46" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L46" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M46" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44376</v>
+        <v>44846</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K47" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L47" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M47" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44466</v>
+        <v>44798</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3816,13 +3816,13 @@
         <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L48" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M48" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K49" t="n">
         <v>14000</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44858</v>
+        <v>44855</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K50" t="n">
         <v>7000</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44799</v>
+        <v>44694</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K51" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="L51" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M51" t="n">
-        <v>10500</v>
+        <v>17750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>420</v>
+        <v>710</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44883</v>
+        <v>44466</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K52" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L52" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M52" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45166</v>
+        <v>44781</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44880</v>
+        <v>44484</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K54" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L54" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44848</v>
+        <v>44756</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K55" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L55" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44809</v>
+        <v>45190</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
         <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44809</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L5" t="n">
         <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45163</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44824</v>
+        <v>45163</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44816</v>
+        <v>44824</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44825</v>
+        <v>44816</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44803</v>
+        <v>44825</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44356</v>
+        <v>44803</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45176</v>
+        <v>44356</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44876</v>
+        <v>45176</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45049</v>
+        <v>44876</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44376</v>
+        <v>45049</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45043</v>
+        <v>44376</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44858</v>
+        <v>45043</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K17" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44848</v>
+        <v>44858</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
         <v>7000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44873</v>
+        <v>44848</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K19" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44372</v>
+        <v>44873</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44827</v>
+        <v>44372</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44690</v>
+        <v>44827</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44880</v>
+        <v>44690</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45166</v>
+        <v>44880</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K24" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44797</v>
+        <v>45166</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L25" t="n">
         <v>11000</v>
       </c>
-      <c r="L25" t="n">
-        <v>12000</v>
-      </c>
       <c r="M25" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44881</v>
+        <v>44797</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K26" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M26" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45114</v>
+        <v>44881</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,29 +2301,29 @@
         </is>
       </c>
       <c r="J27" t="n">
+        <v>500</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
         <v>300</v>
-      </c>
-      <c r="K27" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L27" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M27" t="n">
-        <v>12500</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>500</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44799</v>
+        <v>45114</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,29 +2373,29 @@
         </is>
       </c>
       <c r="J28" t="n">
+        <v>300</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
         <v>500</v>
-      </c>
-      <c r="K28" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L28" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M28" t="n">
-        <v>10500</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>420</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44384</v>
+        <v>44799</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M29" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45121</v>
+        <v>44384</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K30" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L30" t="n">
         <v>12000</v>
       </c>
-      <c r="L30" t="n">
-        <v>13000</v>
-      </c>
       <c r="M30" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45133</v>
+        <v>45121</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44316</v>
+        <v>45133</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L32" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M32" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>660</v>
+        <v>500</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44883</v>
+        <v>44316</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="K33" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L33" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M33" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44817</v>
+        <v>44883</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="K34" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44370</v>
+        <v>44817</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44837</v>
+        <v>44370</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2952,13 +2952,13 @@
         <v>520</v>
       </c>
       <c r="K36" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M36" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45177</v>
+        <v>44837</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K37" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L37" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M37" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44714</v>
+        <v>45177</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M38" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45124</v>
+        <v>44714</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45050</v>
+        <v>45124</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M40" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44473</v>
+        <v>45050</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K41" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L41" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44377</v>
+        <v>44473</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L42" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M42" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44721</v>
+        <v>44377</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K43" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M43" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44811</v>
+        <v>44721</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L44" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>10250</v>
+        <v>14750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>410</v>
+        <v>590</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44386</v>
+        <v>44811</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M45" t="n">
-        <v>11500</v>
+        <v>10250</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44847</v>
+        <v>44386</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L46" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M46" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K47" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L47" t="n">
         <v>8000</v>
       </c>
       <c r="M47" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44798</v>
+        <v>44846</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K48" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L48" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M48" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45044</v>
+        <v>44798</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K49" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="L49" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M49" t="n">
-        <v>14500</v>
+        <v>10750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44855</v>
+        <v>45044</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="K50" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L50" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M50" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44694</v>
+        <v>44855</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="K51" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="L51" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M51" t="n">
-        <v>17750</v>
+        <v>7500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>710</v>
+        <v>300</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44466</v>
+        <v>44694</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K52" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="L52" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M52" t="n">
-        <v>9750</v>
+        <v>17750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44781</v>
+        <v>44466</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4176,13 +4176,13 @@
         <v>400</v>
       </c>
       <c r="K53" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L53" t="n">
         <v>10000</v>
       </c>
-      <c r="L53" t="n">
-        <v>11000</v>
-      </c>
       <c r="M53" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44484</v>
+        <v>44781</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4248,13 +4248,13 @@
         <v>400</v>
       </c>
       <c r="K54" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L54" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M54" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44756</v>
+        <v>44484</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4320,31 +4320,103 @@
         <v>400</v>
       </c>
       <c r="K55" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>25</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>400</v>
+      </c>
+      <c r="K56" t="n">
         <v>14000</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L56" t="n">
         <v>15000</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M56" t="n">
         <v>14500</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P55" t="n">
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
         <v>580</v>
       </c>
-      <c r="Q55" t="n">
-        <v>25</v>
-      </c>
-      <c r="R55" t="inlineStr">
+      <c r="Q56" t="n">
+        <v>25</v>
+      </c>
+      <c r="R56" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4422,6 +4422,78 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>400</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>25</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>45133</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,29 +501,29 @@
         </is>
       </c>
       <c r="J2" t="n">
+        <v>400</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>500</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44809</v>
+        <v>44714</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>45166</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44797</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K6" t="n">
         <v>11000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45163</v>
+        <v>44881</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M7" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44824</v>
+        <v>45114</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,29 +933,29 @@
         </is>
       </c>
       <c r="J8" t="n">
+        <v>300</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
         <v>500</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>8500</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>340</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44816</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
         <v>9500</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44825</v>
+        <v>44837</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
         <v>8000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44803</v>
+        <v>45177</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44356</v>
+        <v>44874</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45176</v>
+        <v>44384</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44876</v>
+        <v>44811</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M14" t="n">
-        <v>6500</v>
+        <v>10250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>260</v>
+        <v>410</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45049</v>
+        <v>44356</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L15" t="n">
         <v>14000</v>
       </c>
-      <c r="L15" t="n">
-        <v>15000</v>
-      </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44376</v>
+        <v>44876</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45043</v>
+        <v>44370</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="K17" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L17" t="n">
         <v>14000</v>
       </c>
-      <c r="L17" t="n">
-        <v>15000</v>
-      </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44858</v>
+        <v>44721</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>7500</v>
+        <v>14750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44848</v>
+        <v>45049</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44873</v>
+        <v>44816</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K20" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L20" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44827</v>
+        <v>45050</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44690</v>
+        <v>44386</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44880</v>
+        <v>44316</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45166</v>
+        <v>44690</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2160,13 +2160,13 @@
         <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44797</v>
+        <v>44873</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="K26" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L26" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44881</v>
+        <v>44827</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K27" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45114</v>
+        <v>44376</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
         <v>12000</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44799</v>
+        <v>44847</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K29" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L29" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M29" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44384</v>
+        <v>44781</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M30" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45121</v>
+        <v>44846</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45133</v>
+        <v>44880</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K32" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44316</v>
+        <v>44883</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,29 +2733,29 @@
         </is>
       </c>
       <c r="J33" t="n">
+        <v>380</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>300</v>
-      </c>
-      <c r="K33" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>660</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44883</v>
+        <v>44858</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
         <v>7000</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44817</v>
+        <v>44756</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44370</v>
+        <v>44484</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44837</v>
+        <v>44855</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="K37" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L37" t="n">
         <v>8000</v>
       </c>
-      <c r="L37" t="n">
-        <v>9000</v>
-      </c>
       <c r="M37" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45177</v>
+        <v>44425</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L38" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M38" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44714</v>
+        <v>44848</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45124</v>
+        <v>45163</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K40" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L40" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M40" t="n">
-        <v>12750</v>
+        <v>10500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45050</v>
+        <v>45121</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44377</v>
+        <v>44446</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L43" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44721</v>
+        <v>44817</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K44" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M44" t="n">
-        <v>14750</v>
+        <v>9500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>590</v>
+        <v>380</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44811</v>
+        <v>45124</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3600,13 +3600,13 @@
         <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L45" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M45" t="n">
-        <v>10250</v>
+        <v>12750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44386</v>
+        <v>44799</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>500</v>
       </c>
       <c r="K46" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L46" t="n">
         <v>11000</v>
       </c>
-      <c r="L46" t="n">
-        <v>12000</v>
-      </c>
       <c r="M46" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44847</v>
+        <v>44694</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="K47" t="n">
-        <v>7000</v>
+        <v>17500</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M47" t="n">
-        <v>7500</v>
+        <v>17750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>300</v>
+        <v>710</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44846</v>
+        <v>45044</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K48" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44798</v>
+        <v>44824</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K49" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L49" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M49" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45044</v>
+        <v>45190</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K50" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L50" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M50" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44855</v>
+        <v>45043</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>540</v>
+        <v>320</v>
       </c>
       <c r="K51" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L51" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44694</v>
+        <v>44377</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K52" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="L52" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M52" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>710</v>
+        <v>510</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44466</v>
+        <v>44798</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4176,13 +4176,13 @@
         <v>400</v>
       </c>
       <c r="K53" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L53" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M53" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44781</v>
+        <v>44825</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K54" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L54" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M54" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44484</v>
+        <v>44803</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K55" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L55" t="n">
         <v>10000</v>
       </c>
       <c r="M55" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44756</v>
+        <v>45176</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4392,13 +4392,13 @@
         <v>400</v>
       </c>
       <c r="K56" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L56" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M56" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45191</v>
+        <v>44809</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K57" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L57" t="n">
         <v>10000</v>
       </c>
       <c r="M57" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44446</v>
+        <v>45204</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K43" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M43" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44817</v>
+        <v>44446</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L44" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M44" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45124</v>
+        <v>44817</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K45" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44799</v>
+        <v>45124</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L46" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M46" t="n">
-        <v>10500</v>
+        <v>12750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44694</v>
+        <v>44799</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K47" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
       <c r="L47" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M47" t="n">
-        <v>17750</v>
+        <v>10500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>710</v>
+        <v>420</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45044</v>
+        <v>44694</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M48" t="n">
-        <v>14500</v>
+        <v>17750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>580</v>
+        <v>710</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44824</v>
+        <v>45044</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K49" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45190</v>
+        <v>44824</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K50" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L50" t="n">
         <v>9000</v>
       </c>
-      <c r="L50" t="n">
-        <v>10000</v>
-      </c>
       <c r="M50" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45043</v>
+        <v>45190</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K51" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M51" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44377</v>
+        <v>45043</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K52" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L52" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M52" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44798</v>
+        <v>44377</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K53" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L53" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M53" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44825</v>
+        <v>44798</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K54" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L54" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M54" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44803</v>
+        <v>44825</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K55" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L55" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M55" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45176</v>
+        <v>44803</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K56" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L56" t="n">
         <v>10000</v>
       </c>
-      <c r="L56" t="n">
-        <v>11000</v>
-      </c>
       <c r="M56" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,58 +4437,130 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>400</v>
+      </c>
+      <c r="K57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>25</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
         <v>44809</v>
       </c>
-      <c r="E57" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
         <v>520</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K58" t="n">
         <v>9500</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L58" t="n">
         <v>10000</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M58" t="n">
         <v>9750</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
         <v>390</v>
       </c>
-      <c r="Q57" t="n">
-        <v>25</v>
-      </c>
-      <c r="R57" t="inlineStr">
+      <c r="Q58" t="n">
+        <v>25</v>
+      </c>
+      <c r="R58" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44798</v>
+        <v>45212</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4248,13 +4248,13 @@
         <v>400</v>
       </c>
       <c r="K54" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L54" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44825</v>
+        <v>44798</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K55" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L55" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M55" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44803</v>
+        <v>44825</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K56" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L56" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M56" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45176</v>
+        <v>44803</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K57" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L57" t="n">
         <v>10000</v>
       </c>
-      <c r="L57" t="n">
-        <v>11000</v>
-      </c>
       <c r="M57" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,58 +4509,130 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>400</v>
+      </c>
+      <c r="K58" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M58" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>25</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
         <v>44809</v>
       </c>
-      <c r="E58" t="n">
-        <v>4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>100112026</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Haba</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
         <v>520</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K59" t="n">
         <v>9500</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L59" t="n">
         <v>10000</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M59" t="n">
         <v>9750</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
         <v>390</v>
       </c>
-      <c r="Q58" t="n">
-        <v>25</v>
-      </c>
-      <c r="R58" t="inlineStr">
+      <c r="Q59" t="n">
+        <v>25</v>
+      </c>
+      <c r="R59" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45133</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L2" t="n">
         <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45191</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M3" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44714</v>
+        <v>44799</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45166</v>
+        <v>45191</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -720,13 +720,13 @@
         <v>400</v>
       </c>
       <c r="K5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L5" t="n">
         <v>10000</v>
       </c>
-      <c r="L5" t="n">
-        <v>11000</v>
-      </c>
       <c r="M5" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44797</v>
+        <v>44876</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44881</v>
+        <v>44847</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
         <v>7000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45114</v>
+        <v>44781</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44809</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
         <v>9500</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45177</v>
+        <v>45176</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44874</v>
+        <v>44466</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44384</v>
+        <v>44811</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M13" t="n">
-        <v>11750</v>
+        <v>10250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44811</v>
+        <v>44386</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L14" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>10250</v>
+        <v>11500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44356</v>
+        <v>44798</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>10750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44876</v>
+        <v>44473</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44370</v>
+        <v>44356</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
         <v>13000</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44721</v>
+        <v>44756</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
         <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45049</v>
+        <v>44816</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44816</v>
+        <v>45190</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
         <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44372</v>
+        <v>44881</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1872,13 +1872,13 @@
         <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45050</v>
+        <v>44384</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44386</v>
+        <v>44446</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44316</v>
+        <v>44825</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44690</v>
+        <v>44370</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44873</v>
+        <v>44858</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44827</v>
+        <v>45133</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44847</v>
+        <v>44484</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44781</v>
+        <v>45043</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44846</v>
+        <v>45050</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K31" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44880</v>
+        <v>45163</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44883</v>
+        <v>45204</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,29 +2733,29 @@
         </is>
       </c>
       <c r="J33" t="n">
+        <v>520</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>380</v>
-      </c>
-      <c r="K33" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>300</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44858</v>
+        <v>45124</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44756</v>
+        <v>44425</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44484</v>
+        <v>44376</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2952,13 +2952,13 @@
         <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44855</v>
+        <v>45212</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44425</v>
+        <v>45217</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44848</v>
+        <v>45121</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45163</v>
+        <v>44690</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L40" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M40" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45121</v>
+        <v>45166</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3312,13 +3312,13 @@
         <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M41" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44473</v>
+        <v>45044</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K42" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45204</v>
+        <v>44721</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="L43" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>9500</v>
+        <v>14750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>380</v>
+        <v>590</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44446</v>
+        <v>45049</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K44" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L44" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44817</v>
+        <v>44316</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="K45" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M45" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>380</v>
+        <v>660</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45124</v>
+        <v>44846</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K46" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L46" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M46" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>510</v>
+        <v>310</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44799</v>
+        <v>44848</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K47" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L47" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M47" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45044</v>
+        <v>44817</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="K49" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L49" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M49" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44824</v>
+        <v>44873</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K50" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L50" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M50" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45190</v>
+        <v>44827</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K51" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L51" t="n">
         <v>9000</v>
       </c>
-      <c r="L51" t="n">
-        <v>10000</v>
-      </c>
       <c r="M51" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45043</v>
+        <v>44824</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="K52" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M52" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44377</v>
+        <v>44803</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K53" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L53" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M53" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45212</v>
+        <v>44880</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K54" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L54" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M54" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K55" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L55" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M55" t="n">
-        <v>10750</v>
+        <v>11500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44825</v>
+        <v>45177</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K56" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L56" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M56" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44803</v>
+        <v>44714</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K57" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45176</v>
+        <v>44874</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K58" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L58" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M58" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44809</v>
+        <v>44883</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="K59" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L59" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M59" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,12 +4627,84 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
       </c>
       <c r="R59" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>300</v>
+      </c>
+      <c r="K60" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>25</v>
+      </c>
+      <c r="R60" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44880</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K2" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M2" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>45114</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44799</v>
+        <v>44386</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45191</v>
+        <v>44847</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44876</v>
+        <v>44690</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44847</v>
+        <v>44883</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="K7" t="n">
         <v>7000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44781</v>
+        <v>44694</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>10500</v>
+        <v>17750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>420</v>
+        <v>710</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44809</v>
+        <v>45163</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44837</v>
+        <v>44484</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45176</v>
+        <v>44848</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44466</v>
+        <v>44827</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K12" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44811</v>
+        <v>44817</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K13" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L13" t="n">
         <v>10000</v>
       </c>
-      <c r="L13" t="n">
-        <v>10500</v>
-      </c>
       <c r="M13" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44386</v>
+        <v>44809</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44798</v>
+        <v>44858</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>44873</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K16" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44356</v>
+        <v>45204</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44756</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44816</v>
+        <v>44781</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M19" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45190</v>
+        <v>44372</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44881</v>
+        <v>44825</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K21" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44384</v>
+        <v>45044</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44446</v>
+        <v>45049</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44825</v>
+        <v>44466</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L24" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44858</v>
+        <v>44377</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K26" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45133</v>
+        <v>45043</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44372</v>
+        <v>45124</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L28" t="n">
         <v>13000</v>
       </c>
-      <c r="L28" t="n">
-        <v>14000</v>
-      </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44484</v>
+        <v>44721</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>9500</v>
+        <v>14750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>380</v>
+        <v>590</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45043</v>
+        <v>44816</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45050</v>
+        <v>45121</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45163</v>
+        <v>44714</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45204</v>
+        <v>44376</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M33" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45124</v>
+        <v>44797</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K34" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L34" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44425</v>
+        <v>45176</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M35" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K36" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L36" t="n">
         <v>12000</v>
       </c>
-      <c r="L36" t="n">
-        <v>13000</v>
-      </c>
       <c r="M36" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45212</v>
+        <v>44876</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K37" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M37" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45217</v>
+        <v>44811</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3096,13 +3096,13 @@
         <v>400</v>
       </c>
       <c r="K38" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M38" t="n">
-        <v>9500</v>
+        <v>10250</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45121</v>
+        <v>45217</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44690</v>
+        <v>44824</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K40" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45166</v>
+        <v>44356</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M41" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45044</v>
+        <v>44798</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="L42" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M42" t="n">
-        <v>14500</v>
+        <v>10750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44721</v>
+        <v>44473</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3456,13 +3456,13 @@
         <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>14750</v>
+        <v>8750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45049</v>
+        <v>44855</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,29 +3525,29 @@
         </is>
       </c>
       <c r="J44" t="n">
+        <v>540</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
         <v>300</v>
-      </c>
-      <c r="K44" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L44" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" t="n">
-        <v>14500</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>580</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44316</v>
+        <v>44881</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,29 +3597,29 @@
         </is>
       </c>
       <c r="J45" t="n">
+        <v>500</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
         <v>300</v>
-      </c>
-      <c r="K45" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L45" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M45" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>660</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44846</v>
+        <v>45190</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L46" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M46" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44848</v>
+        <v>44425</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M47" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44694</v>
+        <v>44837</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K48" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L48" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M48" t="n">
-        <v>17750</v>
+        <v>8500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44817</v>
+        <v>44799</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K49" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L49" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M49" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44873</v>
+        <v>44803</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K50" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L50" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M50" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44827</v>
+        <v>44874</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K51" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L51" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M51" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44824</v>
+        <v>45177</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K52" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L52" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M52" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44803</v>
+        <v>44756</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K53" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L53" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M53" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44880</v>
+        <v>44846</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K54" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L54" t="n">
         <v>8000</v>
       </c>
       <c r="M54" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44797</v>
+        <v>45191</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K55" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L55" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M55" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45177</v>
+        <v>45050</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K56" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L56" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M56" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44714</v>
+        <v>45166</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4464,13 +4464,13 @@
         <v>400</v>
       </c>
       <c r="K57" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L57" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M57" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44874</v>
+        <v>44370</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K58" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L58" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M58" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44883</v>
+        <v>45212</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,29 +4605,29 @@
         </is>
       </c>
       <c r="J59" t="n">
+        <v>400</v>
+      </c>
+      <c r="K59" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
         <v>380</v>
-      </c>
-      <c r="K59" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L59" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M59" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>300</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45114</v>
+        <v>45133</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K60" t="n">
         <v>12000</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P60" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44880</v>
+        <v>44372</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45114</v>
+        <v>44848</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,29 +573,29 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>800</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>300</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>12500</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>500</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44386</v>
+        <v>45050</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44847</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44690</v>
+        <v>45177</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -792,13 +792,13 @@
         <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44883</v>
+        <v>44798</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>10750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44694</v>
+        <v>44874</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>17500</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>17750</v>
+        <v>6500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>710</v>
+        <v>260</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45163</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44484</v>
+        <v>44824</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L10" t="n">
         <v>9000</v>
       </c>
-      <c r="L10" t="n">
-        <v>10000</v>
-      </c>
       <c r="M10" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44848</v>
+        <v>45049</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44827</v>
+        <v>44825</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K12" t="n">
         <v>8000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44817</v>
+        <v>45204</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K13" t="n">
         <v>9000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44809</v>
+        <v>45191</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
         <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44858</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1440,13 +1440,13 @@
         <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44873</v>
+        <v>44694</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="K16" t="n">
-        <v>6000</v>
+        <v>17500</v>
       </c>
       <c r="L16" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>6500</v>
+        <v>17750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>260</v>
+        <v>710</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45204</v>
+        <v>45163</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>44809</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K18" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>16500</v>
+        <v>9750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44781</v>
+        <v>44384</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K19" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L19" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44372</v>
+        <v>45133</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
+        <v>400</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
         <v>500</v>
-      </c>
-      <c r="K20" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>13500</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>540</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44825</v>
+        <v>44873</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45044</v>
+        <v>44799</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45049</v>
+        <v>44811</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>10250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44466</v>
+        <v>44881</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44384</v>
+        <v>45212</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L25" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44377</v>
+        <v>44714</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45043</v>
+        <v>44756</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
         <v>14000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45124</v>
+        <v>44377</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K28" t="n">
         <v>12500</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44721</v>
+        <v>44370</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K29" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M29" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44816</v>
+        <v>44446</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45121</v>
+        <v>45043</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K31" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44714</v>
+        <v>44827</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44376</v>
+        <v>44816</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44797</v>
+        <v>44690</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45176</v>
+        <v>44876</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K35" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L35" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M35" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44446</v>
+        <v>44803</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K36" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44876</v>
+        <v>44721</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>6500</v>
+        <v>14750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>260</v>
+        <v>590</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44811</v>
+        <v>44846</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K38" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L38" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>10250</v>
+        <v>7750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45217</v>
+        <v>44797</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K39" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M39" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44824</v>
+        <v>45217</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44356</v>
+        <v>45190</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L41" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44798</v>
+        <v>44484</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3384,13 +3384,13 @@
         <v>400</v>
       </c>
       <c r="K42" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L42" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M42" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44473</v>
+        <v>45176</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K43" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M43" t="n">
-        <v>8750</v>
+        <v>10500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44855</v>
+        <v>44781</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K44" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L44" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M44" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44881</v>
+        <v>44880</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K45" t="n">
         <v>7000</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45190</v>
+        <v>44817</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K46" t="n">
         <v>9000</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44425</v>
+        <v>44466</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,13 +3744,13 @@
         <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L47" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M47" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44837</v>
+        <v>44847</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3816,13 +3816,13 @@
         <v>520</v>
       </c>
       <c r="K48" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L48" t="n">
         <v>8000</v>
       </c>
-      <c r="L48" t="n">
-        <v>9000</v>
-      </c>
       <c r="M48" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44799</v>
+        <v>44376</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,29 +3885,29 @@
         </is>
       </c>
       <c r="J49" t="n">
+        <v>400</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
         <v>500</v>
-      </c>
-      <c r="K49" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L49" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M49" t="n">
-        <v>10500</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>420</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44803</v>
+        <v>44837</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K50" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M50" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44874</v>
+        <v>44316</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K51" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L51" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M51" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45177</v>
+        <v>44883</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K52" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L52" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M52" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44756</v>
+        <v>44855</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K53" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L53" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M53" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44846</v>
+        <v>45124</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K54" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L54" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M54" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45191</v>
+        <v>45166</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4320,13 +4320,13 @@
         <v>400</v>
       </c>
       <c r="K55" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L55" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M55" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45050</v>
+        <v>45044</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K56" t="n">
         <v>14000</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45166</v>
+        <v>45121</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4464,13 +4464,13 @@
         <v>400</v>
       </c>
       <c r="K57" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L57" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M57" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44370</v>
+        <v>45114</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K58" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L58" t="n">
         <v>13000</v>
       </c>
-      <c r="L58" t="n">
-        <v>14000</v>
-      </c>
       <c r="M58" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45212</v>
+        <v>44858</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K59" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L59" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M59" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45133</v>
+        <v>44386</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K60" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L60" t="n">
         <v>12000</v>
       </c>
-      <c r="L60" t="n">
-        <v>13000</v>
-      </c>
       <c r="M60" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44848</v>
+        <v>45245</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45050</v>
+        <v>44848</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>45050</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K5" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45177</v>
+        <v>44425</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -792,13 +792,13 @@
         <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44798</v>
+        <v>45177</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -864,13 +864,13 @@
         <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
         <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>10750</v>
+        <v>10500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44874</v>
+        <v>44798</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>6500</v>
+        <v>10750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44874</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1008,13 +1008,13 @@
         <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44824</v>
+        <v>44356</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1080,13 +1080,13 @@
         <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45049</v>
+        <v>44824</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44825</v>
+        <v>45049</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45204</v>
+        <v>44825</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K13" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L13" t="n">
         <v>9000</v>
       </c>
-      <c r="L13" t="n">
-        <v>10000</v>
-      </c>
       <c r="M13" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45191</v>
+        <v>45204</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K14" t="n">
         <v>9000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>45191</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44694</v>
+        <v>44473</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>17750</v>
+        <v>8750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>710</v>
+        <v>350</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45163</v>
+        <v>44694</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="L17" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>10500</v>
+        <v>17750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>420</v>
+        <v>710</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44809</v>
+        <v>45163</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M18" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44384</v>
+        <v>44809</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K19" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="Q19" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45133</v>
+        <v>44384</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K20" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L20" t="n">
         <v>12000</v>
       </c>
-      <c r="L20" t="n">
-        <v>13000</v>
-      </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44873</v>
+        <v>45133</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44799</v>
+        <v>44873</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K22" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L22" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44811</v>
+        <v>44799</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,17 +2013,17 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
         <v>10000</v>
       </c>
       <c r="L23" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M23" t="n">
         <v>10500</v>
       </c>
-      <c r="M23" t="n">
-        <v>10250</v>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44881</v>
+        <v>44811</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>10250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45212</v>
+        <v>44881</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M25" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44714</v>
+        <v>45212</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2232,13 +2232,13 @@
         <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44756</v>
+        <v>44714</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44377</v>
+        <v>44756</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2448,13 +2448,13 @@
         <v>520</v>
       </c>
       <c r="K29" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L29" t="n">
         <v>13000</v>
       </c>
-      <c r="L29" t="n">
-        <v>14000</v>
-      </c>
       <c r="M29" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44446</v>
+        <v>44370</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K30" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45043</v>
+        <v>44446</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44827</v>
+        <v>45043</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>700</v>
+        <v>320</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44816</v>
+        <v>44827</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K33" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44690</v>
+        <v>44816</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L34" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>17500</v>
+        <v>9750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>700</v>
+        <v>390</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44876</v>
+        <v>44690</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M35" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44803</v>
+        <v>44876</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K36" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44721</v>
+        <v>44803</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K37" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>14750</v>
+        <v>9750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44846</v>
+        <v>44721</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>310</v>
+        <v>590</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44797</v>
+        <v>44846</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K39" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L39" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45217</v>
+        <v>44797</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K40" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45190</v>
+        <v>45217</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44484</v>
+        <v>45190</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45176</v>
+        <v>44484</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3456,13 +3456,13 @@
         <v>400</v>
       </c>
       <c r="K43" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L43" t="n">
         <v>10000</v>
       </c>
-      <c r="L43" t="n">
-        <v>11000</v>
-      </c>
       <c r="M43" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44781</v>
+        <v>45176</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44880</v>
+        <v>44781</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M45" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44817</v>
+        <v>44880</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K46" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M46" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44466</v>
+        <v>44817</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K47" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L47" t="n">
         <v>10000</v>
       </c>
       <c r="M47" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44847</v>
+        <v>44466</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L48" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M48" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44376</v>
+        <v>44847</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K49" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L49" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M49" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44837</v>
+        <v>44376</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K50" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L50" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M50" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44316</v>
+        <v>44837</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="K51" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L51" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M51" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44883</v>
+        <v>44316</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="K52" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L52" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M52" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44855</v>
+        <v>44883</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="K53" t="n">
         <v>7000</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45124</v>
+        <v>44855</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K54" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L54" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M54" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45166</v>
+        <v>45124</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4320,13 +4320,13 @@
         <v>400</v>
       </c>
       <c r="K55" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L55" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M55" t="n">
-        <v>10500</v>
+        <v>12750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45044</v>
+        <v>45166</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K56" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L56" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M56" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45121</v>
+        <v>45044</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K57" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L57" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K58" t="n">
         <v>12000</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44858</v>
+        <v>45114</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,29 +4605,29 @@
         </is>
       </c>
       <c r="J59" t="n">
+        <v>300</v>
+      </c>
+      <c r="K59" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M59" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
         <v>500</v>
-      </c>
-      <c r="K59" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L59" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M59" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>300</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44386</v>
+        <v>44858</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4680,31 +4680,103 @@
         <v>500</v>
       </c>
       <c r="K60" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>25</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>44386</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>500</v>
+      </c>
+      <c r="K61" t="n">
         <v>11000</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L61" t="n">
         <v>12000</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M61" t="n">
         <v>11500</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
         <v>460</v>
       </c>
-      <c r="Q60" t="n">
-        <v>25</v>
-      </c>
-      <c r="R60" t="inlineStr">
+      <c r="Q61" t="n">
+        <v>25</v>
+      </c>
+      <c r="R61" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44372</v>
+        <v>44798</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>10750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45245</v>
+        <v>44356</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44848</v>
+        <v>45124</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L4" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45050</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44425</v>
+        <v>44372</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45177</v>
+        <v>45247</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44798</v>
+        <v>44384</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K8" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1008,13 +1008,13 @@
         <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44356</v>
+        <v>44377</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K10" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L10" t="n">
         <v>13000</v>
       </c>
-      <c r="L10" t="n">
-        <v>14000</v>
-      </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44824</v>
+        <v>45245</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45049</v>
+        <v>45212</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44825</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45204</v>
+        <v>44817</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K14" t="n">
         <v>9000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45191</v>
+        <v>44694</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>9500</v>
+        <v>17750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>380</v>
+        <v>710</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>45176</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M16" t="n">
-        <v>8750</v>
+        <v>10500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44694</v>
+        <v>44846</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>17750</v>
+        <v>7750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>710</v>
+        <v>310</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45163</v>
+        <v>45177</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
         <v>10000</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44809</v>
+        <v>44803</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
         <v>9500</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44384</v>
+        <v>45191</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="Q20" t="n">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45133</v>
+        <v>44690</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1872,13 +1872,13 @@
         <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q21" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44873</v>
+        <v>44721</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="L22" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>6500</v>
+        <v>14750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>260</v>
+        <v>590</v>
       </c>
       <c r="Q22" t="n">
         <v>25</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44799</v>
+        <v>44473</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2016,13 +2016,13 @@
         <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L23" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="Q23" t="n">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44811</v>
+        <v>45204</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K24" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L24" t="n">
         <v>10000</v>
       </c>
-      <c r="L24" t="n">
-        <v>10500</v>
-      </c>
       <c r="M24" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="Q24" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44881</v>
+        <v>45166</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L25" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M25" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45212</v>
+        <v>44883</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44714</v>
+        <v>44809</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="Q27" t="n">
         <v>25</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44756</v>
+        <v>44855</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q28" t="n">
         <v>25</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44377</v>
+        <v>44874</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="L29" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="Q29" t="n">
         <v>25</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44370</v>
+        <v>44386</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="Q30" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44446</v>
+        <v>45133</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,29 +2589,29 @@
         </is>
       </c>
       <c r="J31" t="n">
+        <v>400</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
         <v>500</v>
-      </c>
-      <c r="K31" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M31" t="n">
-        <v>11500</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>460</v>
       </c>
       <c r="Q31" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44827</v>
+        <v>45049</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44816</v>
+        <v>44827</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K34" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M34" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44690</v>
+        <v>45190</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,13 +2880,13 @@
         <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L35" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44876</v>
+        <v>44781</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M36" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44803</v>
+        <v>45114</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K37" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44721</v>
+        <v>44797</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K38" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M38" t="n">
-        <v>14750</v>
+        <v>11500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44846</v>
+        <v>44873</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K39" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M39" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44797</v>
+        <v>44847</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="K40" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M40" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
       